--- a/result/生词本导入模版_4.xlsx
+++ b/result/生词本导入模版_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,43 +458,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>palter</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vi. 欺骗： to act insincerely or deceitfully</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>unwilling to palter over the price of the house  拒绝对房子漫天要价</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>paltry</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>adj. 无价值的；微不足道的： lacking in importance or worth
 adj. 让人厌恶，让人鄙视的： arousing or deserving of one's loathing and disgust</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>used a paltry , underhanded scheme to get him fired  用一个微小卑鄙的手段炒了他鱿鱼
 a paltry, underhanded scheme to get someone fired  一个卑鄙的炒掉某人的计谋</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>pan</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>v./n. 严厉批评： a harsh criticism</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>almost all the movie critics have panned this latest sequel in a tired series  几乎所有的影评家都批评这部最新续集，认为是狗尾续貂</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -504,17 +504,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>panache</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. 炫耀： dash or flamboyance in style and action</t>
+          <t>v./n. 严厉批评： a harsh criticism</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The BBC Symphony Orchestra played with great panache.   BBC  交响乐队</t>
+          <t>almost all the movie critics have panned this latest sequel in a tired series  几乎所有的影评家都批评这部最新续集，认为是狗尾续貂</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pandemic</t>
+          <t>panache</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 大范围流行的： widespread; general</t>
+          <t>n. 炫耀： dash or flamboyance in style and action</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pandemic malaria  大规模的疟疾</t>
+          <t>The BBC Symphony Orchestra played with great panache.   BBC  交响乐队</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -548,17 +548,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pandemonium</t>
+          <t>pandemic</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. 喧嚣，骚动： wild uproar or noise</t>
+          <t>adj. 大范围流行的： widespread; general</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Christmas morning at our house is always marked by pandemonium  圣诞节的早上总是免不了一番吵吵闹闹</t>
+          <t>pandemic malaria  大规模的疟疾</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -570,17 +570,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>panegyric</t>
+          <t>pandemonium</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 赞颂之词： a eulogistic oration or writing</t>
+          <t>n. 喧嚣，骚动： wild uproar or noise</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wrote a panegyric on the centennial of the Nobel laureate's birth  为诺贝尔获得者百年诞辰纪念日写了一篇溢美之词</t>
+          <t>Christmas morning at our house is always marked by pandemonium  圣诞节的早上总是免不了一番吵吵闹闹</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -592,17 +592,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>panoramic</t>
+          <t>panegyric</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adj. 全景的： of an unobstructed or complete view of an area in every direction</t>
+          <t>n. 赞颂之词： a eulogistic oration or writing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a panorama of American history  美国历史总览</t>
+          <t>wrote a panegyric on the centennial of the Nobel laureate's birth  为诺贝尔获得者百年诞辰纪念日写了一篇溢美之词</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -614,17 +614,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>parable</t>
+          <t>panoramic</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>n. 寓言： a story intended to teach a basic truth or moral about life</t>
+          <t>adj. 全景的： of an unobstructed or complete view of an area in every direction</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>the parable in which the repentant sinner is compared to the returning prodigal son  这 个 寓 言 故 事 将不愿悔过的罪人和回头的浪子进行了比较</t>
+          <t>a panorama of American history  美国历史总览</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -636,17 +636,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>paradigm</t>
+          <t>parable</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n. 典范，模范： one that serves as a pattern or model</t>
+          <t>n. 寓言： a story intended to teach a basic truth or moral about life</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>He was the paradigm of the successful man.   他是成功人士的典范</t>
+          <t>the parable in which the repentant sinner is compared to the returning prodigal son  这 个 寓 言 故 事 将不愿悔过的罪人和回头的浪子进行了比较</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -658,43 +658,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>paradigm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n. 典范，模范： one that serves as a pattern or model</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>He was the paradigm of the successful man.   他是成功人士的典范</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>paradise</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>n. 天堂，极乐世界： an often imaginary place or state of utter perfection and happiness
 n. 快乐，狂喜： a state of overwhelming usually pleasurable emotion</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>an idealist who trotted the globe looking for paradise  一个奔波于全世界以寻找一片乐土的理想主义者
 that early stage of a romance when lovers are in paradise  爱情初期，当恋人们都处于快乐兴奋的状态时</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>paradox</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>n. 表面矛盾实际可能正确的话，悖论： a statement that is seemingly contradictory or opposed tocommon sense and yet is perhaps true</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>The paradox is that fishermen would catch more fish if they fished less.   存在的一个悖论就是：如果渔民减少捕鱼量的话，他们将会捕到更多的鱼</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -704,43 +704,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>paradox</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n. 表面矛盾实际可能正确的话，悖论： a statement that is seemingly contradictory or opposed tocommon sense and yet is perhaps true</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The paradox is that fishermen would catch more fish if they fished less.   存在的一个悖论就是：如果渔民减少捕鱼量的话，他们将会捕到更多的鱼</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>paragon</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>n. 优秀模范： a model of excellence or perfection of a kind; a peerless example
 vt. 把…比作；显示相似： to compare with; parallel</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>a paragon of good husband  模范好丈夫
 paragon retreat with treachery  把撤退比作是背叛</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>paramount</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>adj. 最重要的： of chief concern or importance</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>The paramount goal is to restore the colonial-era house with complete historical accuracy.   最 重 要 的 任务就是十分精确地依照历史重建殖民时期的建筑本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -750,17 +750,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>paranoid</t>
+          <t>paramount</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 多疑的，对他人极端恐惧和怀疑的： exhibiting or characterized by extreme and irrational fear ordistrust of others</t>
+          <t>adj. 最重要的： of chief concern or importance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a paranoid suspicion that the phone might be bugged  疑神疑鬼地担心电话被窃听了</t>
+          <t>The paramount goal is to restore the colonial-era house with complete historical accuracy.   最 重 要 的 任务就是十分精确地依照历史重建殖民时期的建筑</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -772,17 +772,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>paraphrase</t>
+          <t>paranoid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>v. 转述，意译，改写： to express something (as a text or statement) in different words</t>
+          <t>adj. 多疑的，对他人极端恐惧和怀疑的： exhibiting or characterized by extreme and irrational fear ordistrust of others</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Could you please paraphrase your diagnosis of my health condition, using simpler language? 您 能 否用更通俗的话语转述一下您对我健康状况的诊断呢</t>
+          <t>a paranoid suspicion that the phone might be bugged  疑神疑鬼地担心电话被窃听了</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,17 +794,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>parch</t>
+          <t>paraphrase</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vi. 烤干： to make extremely dry, especially by exposure to heat</t>
+          <t>v. 转述，意译，改写： to express something (as a text or statement) in different words</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>parch a surface from exposure to sun  通过太阳照射烤干一个面</t>
+          <t>Could you please paraphrase your diagnosis of my health condition, using simpler language? 您 能 否用更通俗的话语转述一下您对我健康状况的诊断呢</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -816,17 +816,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>parenthesis</t>
+          <t>parch</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>n. 间断： an interruption of continuity; an interval</t>
+          <t>vi. 烤干： to make extremely dry, especially by exposure to heat</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>a parenthesis in an otherwise solid marriage  在本该是完满婚姻中的一个插曲</t>
+          <t>parch a surface from exposure to sun  通过太阳照射烤干一个面</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -838,17 +838,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pariah</t>
+          <t>parenthesis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n. 被排斥或鄙视的人： one that is despised or rejected, outcast</t>
+          <t>n. 间断： an interruption of continuity; an interval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>I felt like a pariah when I wore the wrong outfit to the dinner party.  当我穿着不恰当的礼服赴宴时，我感觉自己被别人狠狠地鄙视了</t>
+          <t>a parenthesis in an otherwise solid marriage  在本该是完满婚姻中的一个插曲</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -860,17 +860,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>parity</t>
+          <t>pariah</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n. 相称，同等，平等： the quality or state of being equal or equivalent</t>
+          <t>n. 被排斥或鄙视的人： one that is despised or rejected, outcast</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>to achieve parity with our commercial competitors  取得与我们的商业竞争对手同等的地位</t>
+          <t>I felt like a pariah when I wore the wrong outfit to the dinner party.  当我穿着不恰当的礼服赴宴时，我感觉自己被别人狠狠地鄙视了</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -882,15 +882,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>parody</t>
+          <t>parity</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>n. （以嘲笑原作作者的）模仿作品： a literary or musical work in which the style of an author or workis closely imitated for comic effect or in ridicule</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>n. 相称，同等，平等： the quality or state of being equal or equivalent</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>to achieve parity with our commercial competitors  取得与我们的商业竞争对手同等的地位</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -900,43 +904,39 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>parody</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n. （以嘲笑原作作者的）模仿作品： a literary or musical work in which the style of an author or workis closely imitated for comic effect or in ridicule</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>paroxysm</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>n. （感情、动作的）突发：a sudden outburst of emotion or action
 n. （政治、社会领域的）大动荡：a violent disturbance (as of the political or social order)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>a paroxysm of coughing  突然一阵咳嗽
 Darwin's introduction of the theory of evolution created paroxysms in both religion and science that are stillbeing felt today.   达尔文提出的进化论给宗教界和科学界都带来了巨大的冲击，时至今日我们仍然可以感觉到</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>parrot</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>vt. （机械地）模仿，复制： to repeat or imitate, especially without understanding</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>parrot others blindly  盲目地人云亦云</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -946,17 +946,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>parry</t>
+          <t>parrot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vt. 躲避（问题）： to evade especially by an adroit answer</t>
+          <t>vt. （机械地）模仿，复制： to repeat or imitate, especially without understanding</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>He parried the embarrassing question with a clever reply.   他以巧妙的回答躲避了这个令人尴尬的问题</t>
+          <t>parrot others blindly  盲目地人云亦云</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -968,17 +968,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>parsimonious</t>
+          <t>parry</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>n. 过度节俭的，吝啬的： frugal to the point of stinginess</t>
+          <t>vt. 躲避（问题）： to evade especially by an adroit answer</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>the stereotype of the dour and parsimonious Scotsman  严肃而吝啬的苏格兰人的典型代表</t>
+          <t>He parried the embarrassing question with a clever reply.   他以巧妙的回答躲避了这个令人尴尬的问题</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -990,19 +990,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>parsimonious</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>adj. 偏袒的，偏爱的： inclined to favor one party more than the other: biased
-adj. 部分的，不完整的： lacking some necessary part</t>
+          <t>n. 过度节俭的，吝啬的： frugal to the point of stinginess</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>He is partial to Maverick.   他偏爱小牛队
-a partial answer to the problem  一部分的解答</t>
+          <t>the stereotype of the dour and parsimonious Scotsman  严肃而吝啬的苏格兰人的典型代表</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1014,17 +1012,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>particularize</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vt. 详述： to go into or give details or particulars</t>
+          <t>adj. 偏袒的，偏爱的： inclined to favor one party more than the other: biased</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>particularize the rules you must observe  详述了你需要遵守的规定</t>
+          <t>He is partial to Maverick.   他偏爱小牛队</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1036,69 +1034,69 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>particularize</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>vt. 详述： to go into or give details or particulars</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>particularize the rules you must observe  详述了你需要遵守的规定</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>partisan</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>n. 跟随者，信徒： one who follows the opinions or teachings of another
 n. （狂热、坚定的）拥护者，支持者： one who is intensely or excessively devoted to a cause
 adj. 偏袒的： inclined to favor one side over another</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Partisans of the charismatic leader refuse to tolerate any criticism of him at all.  跟 随 者 们不 允 许任 何有关他们富有魅力的领导的负面言论
 a partisan of the revolution who was even willing to give her life for it  一个愿意为了革命献出自己生命的坚定拥护者
 a shamelessly partisan news report  一篇无耻的、有倾向性的新闻报道</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>pastiche</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>n. （带嘲讽的）模仿： a literary, artistic, musical, or architectural work that imitates the style of previouswork, often with satirical intent
 n. 大杂烩： a pasticcio of incongruous parts; a hodgepodge</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>a pastiche of Botticelli's Birth of Venus  波提且利画作《维纳斯的诞生》的仿品
 a pastiche of dishes from many countries  来自众多国家的饮食杂烩</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>partition</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>n. 分割，划分： the act or process of dividing something into parts</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>the partition of Czechoslovakia into the Czech Republic and Slovakia  捷克斯洛伐克被分裂成捷克共和国和斯洛伐克</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1108,17 +1106,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pathological</t>
+          <t>partition</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>adj. 不正常的，病态的： being such to a degree that is extreme, excessive, or markedly abnormal</t>
+          <t>n. 分割，划分： the act or process of dividing something into parts</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>She has a pathological fear of snakes.  她对蛇有一种病态的恐惧</t>
+          <t>the partition of Czechoslovakia into the Czech Republic and Slovakia  捷克斯洛伐克被分裂成捷克共和国和斯洛伐克</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1130,136 +1128,136 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>patent</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>adj. 显而易见的，明显的： readily visible or intelligible: obvious</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unfortunately, the patent flaw of the proposal did not deter the city council from putting it up for a vote.  </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pathological</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>adj. 不正常的，病态的： being such to a degree that is extreme, excessive, or markedly abnormal</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>She has a pathological fear of snakes.  她对蛇有一种病态的恐惧</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>patina</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>n. 外表： a superficial covering or exterior
 n. （由内而外散发的）氛围，气场： an appearance or aura that is derived from association, habit, orestablished character</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>a superficial patina of knowledge  表面肤浅的知识
 Although the winery is brand-new, it has been constructed and decorated to give it a patina of old-worldquaintness.   尽管酿酒厂是全新建造的，但它的构造和装饰都刻意营造出一种古色古香的奇异氛围</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>patrician</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>n. 贵族，名门望族： a man or woman of high birth or social position
 adj. 贵族的，地位高的： of high birth, rank, or station</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>the rank of a patrician  贵族等级
 came from a patrician family  出身贵族世家</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>patriot</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>n. 爱国者： one who loves his or her country and supports its authority and interests</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>The USA PATRIOT Act has generated a great deal of controversy since its enactment.   自实施之日起，美国的《爱国者法案》就产生了大量的争议
 a fanatical patriot  狂热的爱国者</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>patronize</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>vt. 赞助： provide aid or support for
 v. 以高人一等的态度对待：to adopt an air of condescension toward : treat haughtily or coolly</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>a company that loyally patronizes the arts  一个一直以来坚持赞助艺术界的公司
 a director with an unpleasant habit of patronizing even his most gifted actors  一个有着令人讨厌习惯的导演，他即便是对手下最有才华的演员也傲慢地对待</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>paucity</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>n. 少量，缺乏： smallness of number; dearth</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>an extreme paucity of natural resources  极度缺乏自然资源</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>paunchy</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>adj. 大腹便便，大肚子的： having a potbelly</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>a paunchy middle-aged man  一个大腹便便的中年男子</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1269,65 +1267,57 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>paunchy</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>adj. 大腹便便，大肚子的： having a potbelly</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>a paunchy middle-aged man  一个大腹便便的中年男子</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>peck</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>n. 大量： a considerable amount
 v. （不情愿地）小口咬： to eat reluctantly and in small bites</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Now you're in a peck of trouble.   现在你有一堆麻烦了
 Fashion models never really eat: they just peck at small meals in expensive restaurants.  时 装 模 特 们几乎不吃东西——他们只是随便咬一口昂贵餐厅里的食物</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>pedagogue</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>n. 教育者，老师： a person whose occupation is to give formal instruction in a school</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>a boring pedagogue who is called “PPT reader”一个被戏称为“幻灯片朗读机”的无聊老师</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>pedant</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>n. 书呆子，墨守成规之人： one who pays undue attention to book learning and formal rules</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>He is a perfect type of pedant.   他是个十足的书呆子</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1337,17 +1327,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>predestine</t>
+          <t>pedagogue</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vt. 预先注定： to determine the fate of in advance</t>
+          <t>n. 教育者，老师： a person whose occupation is to give formal instruction in a school</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Our victory in the tournament was seemingly predestined.   我们在锦标赛中的胜利似乎是注定好了的</t>
+          <t>a boring pedagogue who is called “PPT reader”一个被戏称为“幻灯片朗读机”的无聊老师</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1359,112 +1349,112 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>pedant</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>n. 书呆子，墨守成规之人： one who pays undue attention to book learning and formal rules</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>He is a perfect type of pedant.   他是个十足的书呆子</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>predestine</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>vt. 预先注定： to determine the fate of in advance</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Our victory in the tournament was seemingly predestined.   我们在锦标赛中的胜利似乎是注定好了的</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>pedestrian</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>n. 行人： a person traveling on foot
 adj. 平庸无奇的，令人厌倦的： causing weariness, restlessness, or lack of interest</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a lane reserved for pedestrians  行人专用道</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>peep</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>n. 一瞥： a brief and sometimes furtive look
 n. 轻声： a slight sound or utterance</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>take a peep at the new neighbors  偷偷瞄了我们的新邻居一眼
 I haven't heard a peep out of the children for an hour.  我已经一个小时没听到孩子们的声音了</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>peer</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>n. 同等地位的人，同辈： a person who has equal standing with others
 v. 好奇地凝视： to look narrowly or curiously;</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>stand out among peers  在同辈当中很出众
 peer at the variety of marine life in the aquarium's huge tank  好奇地注视着巨大水族箱中丰富多样的海洋生物</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>peeve</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>vt. 打扰，惹恼： to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>be constantly peeved by his affected flattery  总是被他做作的谄媚所惹恼</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>pejorative</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>adj. 轻蔑的，贬低的： disparaging; belittling</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>I agree that I am ambitious, and I don't see it as a pejorative term.  我承认我“雄心勃勃”，但我并不认为本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。这是一个贬义词</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1474,89 +1464,89 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>peeve</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>vt. 打扰，惹恼： to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>be constantly peeved by his affected flattery  总是被他做作的谄媚所惹恼</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pejorative</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>adj. 轻蔑的，贬低的： disparaging; belittling</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>I agree that I am ambitious, and I don't see it as a pejorative term.  我承认我“雄心勃勃”，但我并不认为</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>pellucid</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>adj. 透明的： admitting the passage of light
 adj. 清晰明确的，易懂的： transparently clear in style or meaning</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>pellucid spring water  清澈透明的泉水
 Her poetry has a pellucid simplicity that betrays none of the sweat that went into writing it.   她 的 诗 歌 风格十分清新简约，丝毫没有体现出她为此付出的汗水</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>pen</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>n. 监狱： a place of confinement for persons held in lawful custody
 v. 关押，监禁： to close or shut in by or as if by barriers</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>spent six years in a federal pen  在联邦监狱中度过了六年
 remember to pen up the dogs when visitors come over  客人来的时候别忘了把狗给关起来</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>penalty</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>n. （对罪行的）处罚： a punishment established by law or authority for a crime or offense</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>The maximum penalty is 7 years’ imprisonment.  最为严厉的惩罚是七年的有期徒刑</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>penchant</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>n. 强烈嗜好，迷恋： a strong and continued inclination</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>a penchant for Champaign  非常喜爱香槟</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1566,17 +1556,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>penitent</t>
+          <t>penalty</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 悔过的： feeling or expressing humble or regretful pain or sorrow for sins or offenses</t>
+          <t>n. （对罪行的）处罚： a punishment established by law or authority for a crime or offense</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>a penitentbusinessman who had come to ask for forgiveness  一个来寻求宽恕的决定悔过自新的商人</t>
+          <t>The maximum penalty is 7 years’ imprisonment.  最为严厉的惩罚是七年的有期徒刑</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1588,17 +1578,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>pensive</t>
+          <t>penchant</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 沉思的，（尤指）哀思的： given to or marked by long, quiet and often musingly sadthinking</t>
+          <t>n. 强烈嗜好，迷恋： a strong and continued inclination</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rainy days often put her in a pensive mood.   雨天总是让她陷入深深的思考之中</t>
+          <t>a penchant for Champaign  非常喜爱香槟</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1610,65 +1600,65 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>penitent</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>adj. 悔过的： feeling or expressing humble or regretful pain or sorrow for sins or offenses</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>a penitentbusinessman who had come to ask for forgiveness  一个来寻求宽恕的决定悔过自新的商人</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>pensive</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>adj. 沉思的，（尤指）哀思的： given to or marked by long, quiet and often musingly sadthinking</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rainy days often put her in a pensive mood.   雨天总是让她陷入深深的思考之中</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>penury</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>n. 贫穷： extreme dearth; barrenness or insufficiency
 n. 吝啬，节俭： extreme and often niggardly frugality</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Some have pessimistically regarded the higher education in China as an invisible and irresistible path topenury.   有人悲观地把中国的高等教育看作是一条通往贫穷的通道——无形但不可抗拒
 They bitterly complained about their father's penury.  他们哀怨地抱怨父亲的节俭</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>perambulate</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>v. 徒步穿越，走过： to travel over or through especially on foot for exercise or pleasure</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>We decided to lazily perambulate the entire length of the esplanade and enjoy the fresh air.   我 们 决 定 悠哉地徒步走过滨海大道，享受清新的空气</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>perceptible</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>adj. 可察觉的： capable of being perceived especially by the senses</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>You should be able to note a perceptible temperature change when you add the second reagents.   当你加入第二种试剂的时候，你应该能够察觉到明显的温度变化</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1678,21 +1668,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>peremptory</t>
+          <t>perambulate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adj. 不容反抗的： not allowing contradiction or refusal; imperative
-adj. 爱发号施令的： fond of ordering people around
-adj. 傲慢的： having a feeling of superiority that shows itself in an overbearing attitude</t>
+          <t>v. 徒步穿越，走过： to travel over or through especially on foot for exercise or pleasure</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>a peremptory order from the general  将军下达的不容反抗的命令
-The peremptory secretary began telling the crowd of reporters and photographers exactly where they hadto stand.   爱发号施令的秘书开始部署记者和摄影师们应该站在哪里了本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-She had such a peremptory approach to running the club that people started to avoid her.   她 用 一 种 如此傲慢自大的方式来管理俱乐部，以至于大家纷纷开始躲避她</t>
+          <t>We decided to lazily perambulate the entire length of the esplanade and enjoy the fresh air.   我 们 决 定 悠哉地徒步走过滨海大道，享受清新的空气</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1704,17 +1690,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>perfervid</t>
+          <t>perceptible</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 非常热情的： marked by overwrought or exaggerated emotion: excessively fervent</t>
+          <t>adj. 可察觉的： capable of being perceived especially by the senses</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>perfervid love letter  热情洋溢的情书</t>
+          <t>You should be able to note a perceptible temperature change when you add the second reagents.   当你加入第二种试剂的时候，你应该能够察觉到明显的温度变化</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1726,17 +1712,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>perfidy</t>
+          <t>peremptory</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>n. 不忠，背信弃义： an act or an instance of disloyalty</t>
+          <t>adj. 不容反抗的： not allowing contradiction or refusal; imperative
+adj. 爱发号施令的： fond of ordering people around</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>As loyalty unites lovers, so perfidy estranges friends.   忠诚是爱情的纽带，欺诈是友谊的敌人</t>
+          <t>a peremptory order from the general  将军下达的不容反抗的命令
+The peremptory secretary began telling the crowd of reporters and photographers exactly where they hadto stand.   爱发号施令的秘书开始部署记者和摄影师们应该站在哪里了</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1748,17 +1736,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>perforate</t>
+          <t>perfervid</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>v. 打孔，穿透： to make a hole through</t>
+          <t>adj. 非常热情的： marked by overwrought or exaggerated emotion: excessively fervent</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>to perforate with a pin  用针穿孔</t>
+          <t>perfervid love letter  热情洋溢的情书</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1770,167 +1758,167 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>perfidy</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>n. 不忠，背信弃义： an act or an instance of disloyalty</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>As loyalty unites lovers, so perfidy estranges friends.   忠诚是爱情的纽带，欺诈是友谊的敌人</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>perforate</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>v. 打孔，穿透： to make a hole through</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>to perforate with a pin  用针穿孔</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>perfunctory</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>adj. 例行公事的，敷衍的： characterized by routine or superficiality and often done merely as a duty
 adj. 不感兴趣的： lacking in interest or enthusiasm</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>gave his usual perfunctory nod  例行公事地随便点了个头
 She gave the list only a perfunctory glance.  她无所谓地随便瞅了名单一眼</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>perimeter</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>n. 边界，界限： the line or relatively narrow space that marks the outer limit of something</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>periodical</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>n. 期刊： a publication that appears at regular intervals
 adj. 周期性的，有固定间隔的： occurring or recurring at regular intervals</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>peripatetic</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>adj. 巡游的，四处游历的： walking about or from place to place</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>peripheral</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>adj. 外围的： related to, located in, or constituting an outer boundary or periphery
 adj. 辅助性的： available to supply something extra when needed</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>development in the peripheral areas of megacities  大城市边缘地区的发展
 The IT consultant suggested that we update the drivers for all of the computer's peripheral devices.   IT  咨询师建议我们更新电脑所有外围辅助设备的驱动程序</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>perish</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>vi. 死亡，消亡： to become destroyed or ruined: cease to exist</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>thrive in calamity and perish in soft living  生于忧患，死于安乐
 adapt or perish  适应或是消亡</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>permanent</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>adj. 永恒的： continuing or enduring without fundamental or marked change; lasting forever</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A temporary compromise has been accepted until a more permanent solution can be agreed upon.   在更为持久的决案被通过之前，一个暂时性的妥协方案被接受了</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>permeable</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. 可渗透的： capable of being permeated or penetrated, especially by liquids or gases</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>a permeable fabric that allows your body heat to escape  一种能使身体热量耗散的透气纤维</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1940,17 +1928,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>pernicious</t>
+          <t>permanent</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>adj. 有害的： highly injurious or destructive</t>
+          <t>adj. 永恒的： continuing or enduring without fundamental or marked change; lasting forever</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Business may be troublesome but idleness is pernicious.  工作烦人，懒散害人</t>
+          <t>A temporary compromise has been accepted until a more permanent solution can be agreed upon.   在更为持久的决案被通过之前，一个暂时性的妥协方案被接受了</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1962,65 +1950,57 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>permeable</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>adj. 有害的： highly injurious or destructive</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Business may be troublesome but idleness is pernicious.  工作烦人，懒散害人</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>peroration</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>n. （演讲的）结束语： the concluding part of a discourse and especially an oration
 n.（正式的）演讲，致辞： a usually formal discourse delivered to an audience</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>He summarized his main points in his peroration.   他在结束语中总结了自己的主要观点
 a peroration celebrating the nation's long tradition of religious tolerance and pluralism  为 庆 祝 该 国 长 期以来对于宗教的容忍态度和宗教多元化所做的一个演讲</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>perpetual</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>adj. 永恒的，不断的： continuing forever：everlasting</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>perpetual motion machine  永动机</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>persecute</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>vt. 迫害，折磨： to cause persistent suffering to</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>people who were persecuted simply for practicing their religious faith  因为实践宗教信仰而惨遭迫害的人</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2030,17 +2010,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>perpetual</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vi. 坚持不懈，不屈不挠： to persist in or remain constant to a purpose, idea, or task in the face ofobstacles or discouragement</t>
+          <t>adj. 永恒的，不断的： continuing forever：everlasting</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Although he was frustrated by the lack of financial resources and support, hepersevered in his scientificresearch.  尽管因为资金不足而受阻，但他仍坚持进行科学研究</t>
+          <t>perpetual motion machine  永动机</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2052,17 +2032,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>persiflage</t>
+          <t>persecute</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>n. 打趣： good-natured teasing or exchanging of clever remarks</t>
+          <t>vt. 迫害，折磨： to cause persistent suffering to</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Their tongue-in-cheek persiflage is sometimes mistaken for an exchange of insults by people who don'tknow them.   他们半开玩笑的打趣有时候被不认识他们的人误认为是在互相对骂</t>
+          <t>people who were persecuted simply for practicing their religious faith  因为实践宗教信仰而惨遭迫害的人</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2074,15 +2054,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>persistence</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>n. 坚持，持续： uninterrupted or lasting existence</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>vi. 坚持不懈，不屈不挠： to persist in or remain constant to a purpose, idea, or task in the face ofobstacles or discouragement</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Although he was frustrated by the lack of financial resources and support, hepersevered in his scientificresearch.  尽管因为资金不足而受阻，但他仍坚持进行科学研究</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2092,17 +2076,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>personable</t>
+          <t>persiflage</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj. 风度翩翩的，吸引人的： pleasing in personality or appearance; attractive</t>
+          <t>n. 打趣： good-natured teasing or exchanging of clever remarks</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>apparently be attracted by a personable young man  明显被一位风度翩翩的少年迷住了</t>
+          <t>Their tongue-in-cheek persiflage is sometimes mistaken for an exchange of insults by people who don'tknow them.   他们半开玩笑的打趣有时候被不认识他们的人误认为是在互相对骂</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2114,19 +2098,15 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>perspicacious</t>
+          <t>persistence</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj. 极敏锐的，有洞察力的： having or showing penetrating mental discernment; clear-sighted</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>an impartial and perspicacious judge  一个明镜高悬的法官</t>
-        </is>
-      </c>
+          <t>n. 坚持，持续： uninterrupted or lasting existence</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2136,17 +2116,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>perspicuity</t>
+          <t>personable</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>n. 清晰明了： the quality of being perspicuous; clearness and lucidity</t>
+          <t>adj. 风度翩翩的，吸引人的： pleasing in personality or appearance; attractive</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>The key of modern enterprise system is the prespicuity of property right.   现代企业制度的核心是产权的明晰</t>
+          <t>apparently be attracted by a personable young man  明显被一位风度翩翩的少年迷住了</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2158,17 +2138,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>pertain</t>
+          <t>perspicacious</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>v. 有关联： to have a relation or connection; relate</t>
+          <t>adj. 极敏锐的，有洞察力的： having or showing penetrating mental discernment; clear-sighted</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>new evidence that pertains to the accident  与事故相关的新证据</t>
+          <t>an impartial and perspicacious judge  一个明镜高悬的法官</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2180,17 +2160,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>pertinacious</t>
+          <t>perspicuity</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 顽固的，固执地坚持的： sticking to an opinion, purpose, or course of action in spite of reason,arguments, or persuasion</t>
+          <t>n. 清晰明了： the quality of being perspicuous; clearness and lucidity</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>The pertinacious boy won’t stop crying unless his desire is satisfied.   这个固执的男孩在愿望没有满足的情况下是不会停止哭泣的</t>
+          <t>The key of modern enterprise system is the prespicuity of property right.   现代企业制度的核心是产权的明晰</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2202,17 +2182,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>pertinent</t>
+          <t>pertain</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 相关的，恰当的： having a clear decisive relevance to the matter in hand</t>
+          <t>v. 有关联： to have a relation or connection; relate</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>He impressed the jury with his concise, pertinent answers to the attorney's questions.   他 对 律 师 提 出 的问题的简洁而恰当的回答给陪审团留下了深刻的印象</t>
+          <t>new evidence that pertains to the accident  与事故相关的新证据</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2224,17 +2204,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>perturb</t>
+          <t>pertinacious</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 扰乱，使烦躁不安： to trouble the mind of; to make uneasy</t>
+          <t>adj. 顽固的，固执地坚持的： sticking to an opinion, purpose, or course of action in spite of reason,arguments, or persuasion</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>perturbed me enough to keep me awake that night  让我烦躁到当晚失眠</t>
+          <t>The pertinacious boy won’t stop crying unless his desire is satisfied.   这个固执的男孩在愿望没有满足的情况下是不会停止哭泣的</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2246,17 +2226,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>peruse</t>
+          <t>pertinent</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>v. 细读： to read or examine, typically with great care</t>
+          <t>adj. 相关的，恰当的： having a clear decisive relevance to the matter in hand</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>perused the manuscript to check for grammatical errors  细读手稿以检查语法错误</t>
+          <t>He impressed the jury with his concise, pertinent answers to the attorney's questions.   他 对 律 师 提 出 的问题的简洁而恰当的回答给陪审团留下了深刻的印象</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2268,110 +2248,110 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>perturb</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>vt. 扰乱，使烦躁不安： to trouble the mind of; to make uneasy</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>perturbed me enough to keep me awake that night  让我烦躁到当晚失眠</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>peruse</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>v. 细读： to read or examine, typically with great care</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>perused the manuscript to check for grammatical errors  细读手稿以检查语法错误</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>pervade</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>vt. 弥漫，充满： to be present throughout; permeate</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>The mixed smell of sawdust and glue pervaded the whole factory.  锯 末 与 胶 水 的 味 道 弥 漫 了 整 个 工厂
 the corruption that pervades every stratum of society  充斥在社会每个阶层中的腐败</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>pessimistic</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>adj. 悲观的： tending to stress the negative or unfavorable or to take the gloomiest possible view</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>With that pessimistic attitude, it's no wonder you're depressed.   你的人生观如此悲观，难怪你会感到压抑</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>petition</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>n. 请愿，正式的申请： a solemn supplication or request to a superior authority; an entreaty
 v. （尤指正式地）请求： to make a request, especially a formal written one</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>a petition for divorce  离婚申请书
 She is petitioning to regain custody of the child.  为了重新获得孩子的监护权，她提出了正式申请</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>petrify</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>v. 使僵化，失去活力： to cause to become stiff or stone-like; deaden</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Pressure from family has petrified his once innovative mind.   家庭的压力使他的头脑失去了往日的创造力</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>petty</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>adj. 细微的，不重要的： of small importance; trivial</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>play petty tricks  耍小聪明</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2381,17 +2361,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>petrify</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 不寻常的，非凡的： being out of the ordinary;extraordinary; outstanding</t>
+          <t>v. 使僵化，失去活力： to cause to become stiff or stone-like; deaden</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>the phenomenal growth that the suburb has experienced over the last decade  过去几十年间郊区所经历的令人称奇的快速发展</t>
+          <t>Pressure from family has petrified his once innovative mind.   家庭的压力使他的头脑失去了往日的创造力</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2403,17 +2383,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>philanthropic</t>
+          <t>petty</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 博爱的，为他人着想的： having or showing a concern for the welfare of others</t>
+          <t>adj. 细微的，不重要的： of small importance; trivial</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>the philanthropic aims of the organization  这个机构的博爱、利他的目标</t>
+          <t>play petty tricks  耍小聪明</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2425,17 +2405,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>philistine</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>n. 市侩（注重物质而鄙视智慧或艺术的人）： a person who is guided by materialism and is usuallydisdainful of intellectual or artistic values</t>
+          <t>adj. 不寻常的，非凡的： being out of the ordinary;extraordinary; outstanding</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>The philistine's critics sometime limit artists’ imagine.   市侩之人的批评有时会限制艺术家的想象力</t>
+          <t>the phenomenal growth that the suburb has experienced over the last decade  过去几十年间郊区所经历的令人称奇的快速发展</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2447,17 +2427,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>phlegmatic</t>
+          <t>philanthropic</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 冷静的，无感情的，淡漠的： having or suggesting a calm, sluggish temperament; unemotional</t>
+          <t>adj. 博爱的，为他人着想的： having or showing a concern for the welfare of others</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>a strangely phlegmatic response to what should have been happy news  对本该是一个让人开心的新闻的冷漠回复</t>
+          <t>the philanthropic aims of the organization  这个机构的博爱、利他的目标</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2469,17 +2449,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>piddling</t>
+          <t>philistine</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 微不足道的： so trifling or trivial as to be beneath one's consideration</t>
+          <t>n. 市侩（注重物质而鄙视智慧或艺术的人）： a person who is guided by materialism and is usuallydisdainful of intellectual or artistic values</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>raised a piddling objection to the plan  对计划提出了一个微不足道的反对</t>
+          <t>The philistine's critics sometime limit artists’ imagine.   市侩之人的批评有时会限制艺术家的想象力</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2491,303 +2471,303 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>phlegmatic</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>adj. 冷静的，无感情的，淡漠的： having or suggesting a calm, sluggish temperament; unemotional</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>a strangely phlegmatic response to what should have been happy news  对本该是一个让人开心的新闻的冷漠回复</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>piddling</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>adj. 微不足道的： so trifling or trivial as to be beneath one's consideration</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>raised a piddling objection to the plan  对计划提出了一个微不足道的反对</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>piebald</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 杂色的： of different colors
 adj. 混合的，杂糅而成的： consisting of many things of different sorts</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>a piebald horse  一匹杂色马
 his piebald ethnic background  他身为混血儿的背景</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>pigment</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>n. 颜料： a substance that imparts black or white or a color to other materials
 vt. 给…上颜色： to color with or as if with pigment</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>natural red pigment  天然红色染料
 pigmented silk  染过色的丝绸</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>pilfer</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>v. 偷窃： to steal stealthily in small amounts</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>pilfer the commercial document  偷窃商业文件</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>pillar</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>n. 柱子： a firm upright support for a superstructure
 n. （物质、精神等方面的）支柱： something or someone to which one looks for support</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>stone pillars that supported the hall  支撑大厅的石柱
 My father has been my pillar throughout this crisis.   整场危机之中我父亲都是我的支柱。</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>pillory</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>vt. 被示众嘲弄： to expose to public contempt, ridicule, or scorn</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>The candidate mercilessly pilloried his opponent.   候 选 人 在 大 众 面 前 无 情 地 羞 辱 他 的 对 手 。
 Heresigned after being pilloried by the press.  在遭到媒体嘲弄之后他愤然辞职。</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>pilot</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>n. 领航员，飞行员： one employed to steer a ship
 adj. 初步的，试验性的： serving as a tentative model for future experiment or development
 vt. 带领通过： lead or conduct over a usually difficult course</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>a jet pilot  喷气式飞机飞行员
 They carried out a pilot study before the larger, more expensive project was started  在更大规模、更为昂贵的项目开始之前，他们进行了初步研究。
 The lobbyists piloted the bill through the Senate.   游说集团使法案得到参议院的批准。</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>pine</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>vi. 渴望，奢望： to yearn intensely and persistently especially for something unattainable
 vi. 因渴望而憔悴： to lose vigor, health, or flesh (as through grief)</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>pine for a lost love  渴望那段逝去的爱情
 Separated by their families, the lovers pined away.   这对恋人因为被家人拆散而日益憔悴。</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>pinnacle</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>n. 顶峰： the highest point of development or achievement</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>a singer who has reached the pinnacle of career  已到达事业巅峰的歌手</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>pinpoint</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>adj. 非常精确的： located, fixed, or directed with extreme precision
 v. 精确定位或确认： to locate, fix, determine, or identify with precision</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>The commander demanded the pinpoint location of artillery fire.   指挥官需要火炮攻击的精确位置。
 pinpoint the target by tracking calls from his cellphone  通过跟踪手机信号精确定位了目标
 pinpoint thecause of failure  准确找出失败的原因</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>piquant</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>adj. 辛辣开胃的： pleasantly pungent or tart in taste
 adj. 令人振奋的： appealingly provocative</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>a piquant sauce  开胃的酱汁
 a piquant glance  充满挑逗的一瞥</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>pique</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>vt. 使愤怒： to arouse anger or resentment in
 vt. 激起，刺激： to excite or arouse especially by a provocation, challenge, or rebuff</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>She was greatly piqued when they refused her invitation.  他们拒绝她的邀请让她很生气。
 radical remarks that pique their curiosity  引起他们兴趣的激进评论</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>pithy</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>adj. 精练的，简洁的： precisely meaningful; forceful and brief</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>The professor gave a pithy introduction to this course.   教授就这门课程做了简短的介绍。</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>pitiless</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>adj. 没有同情心的： devoid of or unmoved by pity</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>a pitiless humiliation  毫不留情的羞辱</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2797,17 +2777,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>pittance</t>
+          <t>pirate</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>n. 少量津贴：a small portion, amount, or allowance</t>
+          <t>vt. 盗版，盗用： to take or make use of under a guise of authority but without actual right
+n. 海盗： a robber on the high seas</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>The internship offers only a pittance for a salary, but it is a great opportunity to gain experience.   实 习 所能挣到的报酬是很少的，但是它提供了获得经验的绝佳机会。</t>
+          <t>a pirated version of the software  盗版软件
+little boys dreaming of sailing as pirates  梦想成为海盗的小男孩</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2819,17 +2801,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>placate</t>
+          <t>pithy</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vt. （通过让步以）平息抚慰： to lessen the anger or agitation of</t>
+          <t>adj. 精练的，简洁的： precisely meaningful; forceful and brief</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>The colonists implemented a new policy to placate local opposition  殖民者采取新政策以缓和当地的反抗情绪。</t>
+          <t>The professor gave a pithy introduction to this course.   教授就这门课程做了简短的介绍。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2841,17 +2823,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>placebo</t>
+          <t>pitiless</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>n. 安慰性的事物： something of no intrinsic remedial value that is used to appease or reassureanother</t>
+          <t>adj. 没有同情心的： devoid of or unmoved by pity</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Candies are often adopted as the placebo for the dying patients.   糖果通常作为安慰剂给重症患者服用。</t>
+          <t>a pitiless humiliation  毫不留情的羞辱</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2863,17 +2845,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>plagiarize</t>
+          <t>pittance</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>v. 剽窃，抄袭：to steal and pass off (the ideas or words of another) as one's own</t>
+          <t>n. 少量津贴：a small portion, amount, or allowance</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>In scientific community, plagiarizing other’s paper is a felony.  在学术界，剽窃他人的论文是一项重罪。</t>
+          <t>The internship offers only a pittance for a salary, but it is a great opportunity to gain experience.   实 习 所能挣到的报酬是很少的，但是它提供了获得经验的绝佳机会。</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2885,132 +2867,135 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>placate</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>vt. （通过让步以）平息抚慰： to lessen the anger or agitation of</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>The colonists implemented a new policy to placate local opposition  殖民者采取新政策以缓和当地的反抗情绪。</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>placebo</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>n. 安慰性的事物： something of no intrinsic remedial value that is used to appease or reassureanother</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Candies are often adopted as the placebo for the dying patients.   糖果通常作为安慰剂给重症患者服用。</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>plagiarize</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>v. 剽窃，抄袭：to steal and pass off (the ideas or words of another) as one's own</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>In scientific community, plagiarizing other’s paper is a felony.  在学术界，剽窃他人的论文是一项重罪。</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>plangent</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>adj. 轰鸣的： having a loud reverberating sound
 adj. 凄凉的，哀伤的： having an expressive and especially plaintive quality</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>The camera man was stunned by the plangent roar of wild animals.   摄影师被野生动物发出的怒号吓得不知所措。
 a plangent song about a long-ago love  一首关于往日爱情的凄凉歌曲</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>plastic</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>adj. 可塑的： susceptible of being modified in form or nature
 adj. 虚假的，做作的： lacking in natural or spontaneous quality</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>the plastic quality of modeling clay  模型泥的可塑性质
 There's usually a plastic cordiality at these corporate events.  通常在公司的活动上都有一种虚假的热情和友好。</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>plateau</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>n. 高原： a usually extensive level land area raised sharply above adjacent land on at least one side
 n. 稳定时期，平台期： a relatively stable level, period, or state</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Qinghai-Tibetan Plateau  青藏高原
 reached a plateau of development  达到了发展的稳定期</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>platitude</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>n. 陈词滥调： a trite or banal remark or statement, especially one expressed as if it were original orsignificantMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.
-n. 缺乏原创性： lack of originality</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>the platitude of most political oratory  政治说辞里的陈词滥调</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>plausible</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>adj. 看似有理的： superficially fair, reasonable, or valuable but often specious</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>a plausible argument  看起来头头是道的说理</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>pleat</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>n./vt. 打褶： fold</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3020,19 +3005,15 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>plentitude</t>
+          <t>platitude</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>n. 大量： an ample amount or quantity; an abundance</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>a plentitude of lumber for the current housing market  充足的家具木材供给</t>
-        </is>
-      </c>
+          <t>n. 陈词滥调： a trite or banal remark or statement, especially one expressed as if it were original orsignificant</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3042,17 +3023,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>plethora</t>
+          <t>plausible</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>n. 过量，过剩： excess, superfluity</t>
+          <t>adj. 看似有理的： superficially fair, reasonable, or valuable but often specious</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>a plethora of advice and a paucity of assistance  给出大量建议而鲜有实质性援助</t>
+          <t>a plausible argument  看起来头头是道的说理</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3064,87 +3045,83 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>pleat</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>n./vt. 打褶： fold</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>plentitude</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>n. 大量： an ample amount or quantity; an abundance</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>a plentitude of lumber for the current housing market  充足的家具木材供给</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>plethora</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>n. 过量，过剩： excess, superfluity</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>a plethora of advice and a paucity of assistance  给出大量建议而鲜有实质性援助</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
           <t>pliable</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>adj. 易弯曲的，柔软的： supple enough to bend freely or repeatedly without breaking
 adj. 易受影响的，温顺的： easily influenced, persuaded, or swayed</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>pliable optical fiber  柔软的光纤
 He took advantage of the pliable mind of youth.  他利用了年轻人容易受他人教唆的特点。</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>pliant</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>adj. 易弯曲的： easily bent or flexed</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>a pliant young tree  易弯曲的小树</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>plight</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>n. 困境： a situation, especially a bad or unfortunate one</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>He was in a plight, trying to decide whether or not to take the job.  他处在不知道是否应该接受这份工作的困境之中。</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>plod</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>v. 沉重缓慢地走： to walk heavily or slowly</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>The soldiers slowly plodded across the marsh.  士兵们慢慢走过沼泽地。</t>
-        </is>
-      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3154,346 +3131,335 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>pliant</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>adj. 易弯曲的： easily bent or flexed</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>a pliant young tree  易弯曲的小树</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>plight</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>n. 困境： a situation, especially a bad or unfortunate one</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>He was in a plight, trying to decide whether or not to take the job.  他处在不知道是否应该接受这份工作的困境之中。</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>plod</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>v. 沉重缓慢地走： to walk heavily or slowly</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>The soldiers slowly plodded across the marsh.  士兵们慢慢走过沼泽地。</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>pluck</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>n. 敢于面对困难的勇气： resourceful courage and daring in the face of difficulties
 v. 弹奏（弦乐）： to sound (the strings of an instrument) by pulling and releasing them with the fingersor a plectrum</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>full of pluck  充满了勇气
 pluck the harp  弹奏竖琴</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>plumb</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>vt. 测深度： to measure the depth of (as a body of water) typically with a weighted line
-adj. 垂直的： exactly vertical
-adj. 完全的，绝对的： having no exceptions or restrictions
-v. 仔细深入地检查： to examine closely or deeply</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
+adj. 垂直的： exactly vertical</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>We will plumb the bay to make sure it was deep enough for the huge vessel.   为了确证水深足够容纳这艘巨轮，我们将会测量海湾的深度。
-questions that plumb the depths of stupidity  测量智商下限的问题
-plumbing the book's complexities  审阅这本书的复杂度</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+questions that plumb the depths of stupidity  测量智商下限的问题</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>plummet</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>v. 突然下降： to decline suddenly and steeply</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Overall GPA plummeted 0.  5 points.   平均学分绩骤降 0.  5。</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>plump</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>adj. 丰满的： well-rounded and full in form
 vi. 鼎力支持，赞口不绝： to give full support or praise</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>In Tang Dynasty, being plump was a sign of ultimate beauty.   在唐代，身材丰满是最美丽的象征。
 We will plump for any candidate who supports stem cell research.  我们会鼎力支持那些拥护干细胞研究的候选人。</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>plunge</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vi. 突然下降： to descend or dip suddenly
 vt. 插入，刺入： to cause to penetrate or enter quickly and forcibly into something</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>stock’s value plunged  股票价值骤然下降
 plunged the dagger into his chest  把匕首刺入他的胸膛</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>polarize</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>vt. 使分开对立，两极分化： to break up into opposing factions or groupings</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>The controversy has polarized voters into pro-abortion and anti-abortion groups.   这个问题使得选民分化成支持堕胎和反对堕胎两个群体。</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>polemic</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>n. 争执： a controversial argument</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>The polemic between science and religion has never ceased.  科学和宗教之间的争论从未停息。</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>polished</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>adj. 有教养的： showing a high degree of refinement and the assurance that comes from wide socialexperience
 adj. 擦亮的： having a shiny surface or finish</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>He maintained a very polished tone in his correspondences.  他在通信中保持着一种极有教养的口吻。
 She could see her face reflected in the polished hood of the car.   她可以通过引擎盖光亮的表面看到自己的脸。</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>politic</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>adj. 精明能干的： characterized by shrewdness in managing, contriving, or dealing
 adj. 合时宜的，明智的： suitable for bringing about a desired result under the circumstances</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">a politic secretary  能干的秘书
 It probably would not be politic to tell your boss that his latest idea is the worst thing you've ever heard.  </t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>pompous</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>adj. 浮夸的： excessively elevated or ornate
 adj. 傲慢的： having or exhibiting self-importance</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>The candidate was given to windy rhetorical speeches.   听众们听了一场冗长而浮夸的演讲。
 a pompous politician who insisted on boarding the plane first  一个坚持要求优先登机的傲慢政客</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>ponderable</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>adj. 有价值的，值得考虑的： considerable enough to be weighed or assessed</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Climate change has exerted a ponderable influence on world politics.  气候变化对世界政局有着不容忽视的影响。</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>ponderous</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 沉重的： of very great weight
 adj. 沉闷无聊的： oppressively or unpleasantly dull</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>a ponderous machine  沉重的机器
 a ponderous sermon no one really cares  实际上无人关心的沉闷无聊的布道</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>pontificate</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>vi. 傲慢地做或说：to speak or express opinions in a pompous or dogmatic way</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>pontificate to show a sense of superiority  傲慢地说以显示高人一等的优越感</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>pore</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>vi. 仔细浏览，仔细研究： to read or study attentively(usually used with over)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The committee will probably pore over the results of the study for a long time before making their decision.  </t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>porous</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>adj. 多孔可渗透的： admitting the passage of gas or liquid through pores or interstices本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lava rock has a porous structure which makes the material lightweight and highly moisture-retentive.  </t>
-        </is>
-      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3503,203 +3469,199 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>pontificate</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>vi. 傲慢地做或说：to speak or express opinions in a pompous or dogmatic way</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>pontificate to show a sense of superiority  傲慢地说以显示高人一等的优越感</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>pore</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>vi. 仔细浏览，仔细研究： to read or study attentively(usually used with over)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The committee will probably pore over the results of the study for a long time before making their decision.  </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>porous</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>adj. 多孔可渗透的： admitting the passage of gas or liquid through pores or interstices</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>portentous</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>adj. 预兆性的，凶兆的： being or showing a sign of evil or calamity to come
 adj. 勾起兴趣的，令人遐想的：eliciting amazement or wonder</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>an eerie and portentous stillness  阴森神秘，充满凶兆的寂静
 The way in which he could bring together opposing forces was truly portentous.  他 整 合 两股 对 抗势 力的方法着实令人好奇</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>poseur</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>n. 故作姿态、不真诚的人：an affected or insincere person</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>She is such a poseur and you will never know if she is really crying or pretending.   她就是个爱装的人，你从不知道她是真的在哭还是只是假装而已。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>posit</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>vt.假定，断定：to assume or affirm the existence of</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>The committee posited that he was qualified for the election.  委员会假定他是够格参加选举的。</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>postulate</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>n. 前提条件： something taken as being true or factual and used as a starting point for a course ofaction or reasoning
 v. 假定为真： to assume or claim as true, existent, or necessary</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>One of the postulates that the true agnostic rejects is the assumption that it is even possible for us to knowwhether God exists.   我们无法知道上帝是否存在——这是一个真正的不可知论者所反对的假设。
 postulate a causal relationship  假定存在因果关系</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>posture</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>n. 姿势，姿态： a general way of holding the body
 vi. 故作姿态，装模作样： to assume an artificial or pretended attitude</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>A good upright posture will prevent backaches.  良好的站姿可以预防背痛。
 postured to impress  故作姿态以给别人留下印象</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>potable</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>n. 饮品，尤指有酒精饮料： a beverage, especially an alcoholic beverage
 adj. 适于饮用的： suitable for drinking</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Potables are offered at bar counter for free.   饮料可以在吧台免费领取。
 Price of the potable water has soared.  饮用水价格飙升。</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>potentate</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>n. 有权的人： one who has the power and position to rule over others</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>a son of a potentate  官二代</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>potentiate</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>vt. 激活，加强： to make effective or active, or more effective or more active</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>additives to potentiate the drug  增强药效的添加剂</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>pout</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>vi. （特别是撅嘴）表示不悦： to show displeasure, especially by thrusting out the lips or wearing asullen expression</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>She pouted and didn't say a word to anyone all morning.  她整个早上都闷闷不乐，没和别人说一句话。</t>
-        </is>
-      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3709,17 +3671,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>practitioner</t>
+          <t>potentate</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n. 职业人士： one who practices a profession</t>
+          <t>n. 有权的人： one who has the power and position to rule over others</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>medical practitioner  医护人员，行医者</t>
+          <t>a son of a potentate  官二代</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3731,17 +3693,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>prairie</t>
+          <t>potentiate</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>n. 大草原： an extensive area of flat or rolling, predominantly treeless grassland</t>
+          <t>vt. 激活，加强： to make effective or active, or more effective or more active</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Canadian Prairie  加拿大大草原地区</t>
+          <t>additives to potentiate the drug  增强药效的添加剂</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3753,17 +3715,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>prate</t>
+          <t>pout</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>vi. 闲聊，空谈： to talk long and idly</t>
+          <t>vi. （特别是撅嘴）表示不悦： to show displeasure, especially by thrusting out the lips or wearing asullen expression</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>They have been prating on the phone for hours.  他们已经煲了几个小时的电话粥了。</t>
+          <t>She pouted and didn't say a word to anyone all morning.  她整个早上都闷闷不乐，没和别人说一句话。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3775,17 +3737,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>preach</t>
+          <t>practitioner</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>vi. 传道，布道： to deliver a sermon</t>
+          <t>n. 职业人士： one who practices a profession</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>a minister who loves to preach  一个爱布道的牧师</t>
+          <t>medical practitioner  医护人员，行医者</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3797,71 +3759,135 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>prairie</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>n. 大草原： an extensive area of flat or rolling, predominantly treeless grassland</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Canadian Prairie  加拿大大草原地区</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>prate</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>vi. 闲聊，空谈： to talk long and idly</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>They have been prating on the phone for hours.  他们已经煲了几个小时的电话粥了。</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>preach</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>vi. 传道，布道： to deliver a sermon</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>a minister who loves to preach  一个爱布道的牧师</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>precarious</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>adj. 危险不稳定的： dangerously lacking in security or stability
 adj. 可疑的，不明确的： dependent on uncertain premises</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>a precarious livelihood  不稳定的生计
 His entire argument relies on a precarious assumption.   他的整篇论证都建立在一个可疑的假设之上。</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>precedent</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>n. 先例，前例： an earlier occurrence of something similar
 adj. 先前的： prior in time, order, arrangement, or significance</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>There has not been any precedent so far.   到目前为止还没有先例。
 a landmark decision that set a legalprecedent  在法律上首开先河的重大决议
 Her violent behaviors may be explained by some precedent events in her troubled life.   她 的 暴 力 行 径 或许可以由她之前苦难生活中遭遇到的一些事件来解释。</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>precipitate</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>adj. 匆忙的： acting or done with excessive or careless speed
-vt. 促使，导致： to cause to happen, especially suddenly or prematurely</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>the army's precipitate withdrawal from the field of battle  匆忙将军队从战场上撤下
-to precipitate an international crisis  产生国际危机</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>precipice</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>n. 悬崖峭壁： a very steep or overhanging place</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>a precipice too steep to climb  过于陡峭而无法攀爬的悬崖</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_4.xlsx
+++ b/result/生词本导入模版_4.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,41 +422,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>palter</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vi. 欺骗： to act insincerely or deceitfully</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unwilling to palter over the price of the house  拒绝对房子漫天要价</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>palter</t>
+          <t>paltry</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vi. 欺骗： to act insincerely or deceitfully</t>
+          <t>adj. 无价值的；微不足道的： lacking in importance or worth
+adj. 让人厌恶，让人鄙视的： arousing or deserving of one's loathing and disgust</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>unwilling to palter over the price of the house  拒绝对房子漫天要价</t>
+          <t>used a paltry , underhanded scheme to get him fired  用一个微小卑鄙的手段炒了他鱿鱼
+a paltry, underhanded scheme to get someone fired  一个卑鄙的炒掉某人的计谋</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,19 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>paltry</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adj. 无价值的；微不足道的： lacking in importance or worth
-adj. 让人厌恶，让人鄙视的： arousing or deserving of one's loathing and disgust</t>
+          <t>v./n. 严厉批评： a harsh criticism</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>used a paltry , underhanded scheme to get him fired  用一个微小卑鄙的手段炒了他鱿鱼
-a paltry, underhanded scheme to get someone fired  一个卑鄙的炒掉某人的计谋</t>
+          <t>almost all the movie critics have panned this latest sequel in a tired series  几乎所有的影评家都批评这部最新续集，认为是狗尾续貂</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,17 +492,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>panache</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>v./n. 严厉批评： a harsh criticism</t>
+          <t>n. 炫耀： dash or flamboyance in style and action</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>almost all the movie critics have panned this latest sequel in a tired series  几乎所有的影评家都批评这部最新续集，认为是狗尾续貂</t>
+          <t>The BBC Symphony Orchestra played with great panache.   BBC  交响乐队</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,17 +514,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>panache</t>
+          <t>pandemic</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>n. 炫耀： dash or flamboyance in style and action</t>
+          <t>adj. 大范围流行的： widespread; general</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The BBC Symphony Orchestra played with great panache.   BBC  交响乐队</t>
+          <t>pandemic malaria  大规模的疟疾</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -548,17 +536,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pandemic</t>
+          <t>pandemonium</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 大范围流行的： widespread; general</t>
+          <t>n. 喧嚣，骚动： wild uproar or noise</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pandemic malaria  大规模的疟疾</t>
+          <t>Christmas morning at our house is always marked by pandemonium  圣诞节的早上总是免不了一番吵吵闹闹</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -570,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pandemonium</t>
+          <t>panegyric</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 喧嚣，骚动： wild uproar or noise</t>
+          <t>n. 赞颂之词： a eulogistic oration or writing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Christmas morning at our house is always marked by pandemonium  圣诞节的早上总是免不了一番吵吵闹闹</t>
+          <t>wrote a panegyric on the centennial of the Nobel laureate's birth  为诺贝尔获得者百年诞辰纪念日写了一篇溢美之词</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -592,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>panegyric</t>
+          <t>panoramic</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>n. 赞颂之词： a eulogistic oration or writing</t>
+          <t>adj. 全景的： of an unobstructed or complete view of an area in every direction</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>wrote a panegyric on the centennial of the Nobel laureate's birth  为诺贝尔获得者百年诞辰纪念日写了一篇溢美之词</t>
+          <t>a panorama of American history  美国历史总览</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -614,17 +602,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>panoramic</t>
+          <t>parable</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>adj. 全景的： of an unobstructed or complete view of an area in every direction</t>
+          <t>n. 寓言： a story intended to teach a basic truth or moral about life</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a panorama of American history  美国历史总览</t>
+          <t>the parable in which the repentant sinner is compared to the returning prodigal son  这 个 寓 言 故 事 将不愿悔过的罪人和回头的浪子进行了比较</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -636,17 +624,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>parable</t>
+          <t>paradigm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n. 寓言： a story intended to teach a basic truth or moral about life</t>
+          <t>n. 典范，模范： one that serves as a pattern or model</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>the parable in which the repentant sinner is compared to the returning prodigal son  这 个 寓 言 故 事 将不愿悔过的罪人和回头的浪子进行了比较</t>
+          <t>He was the paradigm of the successful man.   他是成功人士的典范</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -658,17 +646,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>paradigm</t>
+          <t>paradise</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>n. 典范，模范： one that serves as a pattern or model</t>
+          <t>n. 天堂，极乐世界： an often imaginary place or state of utter perfection and happiness
+n. 快乐，狂喜： a state of overwhelming usually pleasurable emotion</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>He was the paradigm of the successful man.   他是成功人士的典范</t>
+          <t>an idealist who trotted the globe looking for paradise  一个奔波于全世界以寻找一片乐土的理想主义者
+that early stage of a romance when lovers are in paradise  爱情初期，当恋人们都处于快乐兴奋的状态时</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -680,19 +670,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>paradise</t>
+          <t>paradox</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>n. 天堂，极乐世界： an often imaginary place or state of utter perfection and happiness
-n. 快乐，狂喜： a state of overwhelming usually pleasurable emotion</t>
+          <t>n. 表面矛盾实际可能正确的话，悖论： a statement that is seemingly contradictory or opposed tocommon sense and yet is perhaps true</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>an idealist who trotted the globe looking for paradise  一个奔波于全世界以寻找一片乐土的理想主义者
-that early stage of a romance when lovers are in paradise  爱情初期，当恋人们都处于快乐兴奋的状态时</t>
+          <t>The paradox is that fishermen would catch more fish if they fished less.   存在的一个悖论就是：如果渔民减少捕鱼量的话，他们将会捕到更多的鱼</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -704,17 +692,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>paradox</t>
+          <t>paragon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>n. 表面矛盾实际可能正确的话，悖论： a statement that is seemingly contradictory or opposed tocommon sense and yet is perhaps true</t>
+          <t>n. 优秀模范： a model of excellence or perfection of a kind; a peerless example
+vt. 把…比作；显示相似： to compare with; parallel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The paradox is that fishermen would catch more fish if they fished less.   存在的一个悖论就是：如果渔民减少捕鱼量的话，他们将会捕到更多的鱼</t>
+          <t>a paragon of good husband  模范好丈夫
+paragon retreat with treachery  把撤退比作是背叛</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -726,19 +716,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>paragon</t>
+          <t>paramount</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>n. 优秀模范： a model of excellence or perfection of a kind; a peerless example
-vt. 把…比作；显示相似： to compare with; parallel</t>
+          <t>adj. 最重要的： of chief concern or importance</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>a paragon of good husband  模范好丈夫
-paragon retreat with treachery  把撤退比作是背叛</t>
+          <t>The paramount goal is to restore the colonial-era house with complete historical accuracy.   最 重 要 的 任务就是十分精确地依照历史重建殖民时期的建筑</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -750,17 +738,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>paramount</t>
+          <t>paranoid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 最重要的： of chief concern or importance</t>
+          <t>adj. 多疑的，对他人极端恐惧和怀疑的： exhibiting or characterized by extreme and irrational fear ordistrust of others</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The paramount goal is to restore the colonial-era house with complete historical accuracy.   最 重 要 的 任务就是十分精确地依照历史重建殖民时期的建筑</t>
+          <t>a paranoid suspicion that the phone might be bugged  疑神疑鬼地担心电话被窃听了</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -772,17 +760,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>paranoid</t>
+          <t>paraphrase</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 多疑的，对他人极端恐惧和怀疑的： exhibiting or characterized by extreme and irrational fear ordistrust of others</t>
+          <t>v. 转述，意译，改写： to express something (as a text or statement) in different words</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>a paranoid suspicion that the phone might be bugged  疑神疑鬼地担心电话被窃听了</t>
+          <t>Could you please paraphrase your diagnosis of my health condition, using simpler language? 您 能 否用更通俗的话语转述一下您对我健康状况的诊断呢</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,17 +782,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>paraphrase</t>
+          <t>parch</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>v. 转述，意译，改写： to express something (as a text or statement) in different words</t>
+          <t>vi. 烤干： to make extremely dry, especially by exposure to heat</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Could you please paraphrase your diagnosis of my health condition, using simpler language? 您 能 否用更通俗的话语转述一下您对我健康状况的诊断呢</t>
+          <t>parch a surface from exposure to sun  通过太阳照射烤干一个面</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -816,17 +804,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>parch</t>
+          <t>parenthesis</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>vi. 烤干： to make extremely dry, especially by exposure to heat</t>
+          <t>n. 间断： an interruption of continuity; an interval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>parch a surface from exposure to sun  通过太阳照射烤干一个面</t>
+          <t>a parenthesis in an otherwise solid marriage  在本该是完满婚姻中的一个插曲</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -838,17 +826,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>parenthesis</t>
+          <t>pariah</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n. 间断： an interruption of continuity; an interval</t>
+          <t>n. 被排斥或鄙视的人： one that is despised or rejected, outcast</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a parenthesis in an otherwise solid marriage  在本该是完满婚姻中的一个插曲</t>
+          <t>I felt like a pariah when I wore the wrong outfit to the dinner party.  当我穿着不恰当的礼服赴宴时，我感觉自己被别人狠狠地鄙视了</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -860,17 +848,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pariah</t>
+          <t>parity</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n. 被排斥或鄙视的人： one that is despised or rejected, outcast</t>
+          <t>n. 相称，同等，平等： the quality or state of being equal or equivalent</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>I felt like a pariah when I wore the wrong outfit to the dinner party.  当我穿着不恰当的礼服赴宴时，我感觉自己被别人狠狠地鄙视了</t>
+          <t>to achieve parity with our commercial competitors  取得与我们的商业竞争对手同等的地位</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -882,19 +870,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>parity</t>
+          <t>parody</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>n. 相称，同等，平等： the quality or state of being equal or equivalent</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>to achieve parity with our commercial competitors  取得与我们的商业竞争对手同等的地位</t>
-        </is>
-      </c>
+          <t>n. （以嘲笑原作作者的）模仿作品： a literary or musical work in which the style of an author or workis closely imitated for comic effect or in ridicule</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -904,15 +888,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>parody</t>
+          <t>paroxysm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n. （以嘲笑原作作者的）模仿作品： a literary or musical work in which the style of an author or workis closely imitated for comic effect or in ridicule</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>n. （感情、动作的）突发：a sudden outburst of emotion or action
+n. （政治、社会领域的）大动荡：a violent disturbance (as of the political or social order)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>a paroxysm of coughing  突然一阵咳嗽
+Darwin's introduction of the theory of evolution created paroxysms in both religion and science that are stillbeing felt today.   达尔文提出的进化论给宗教界和科学界都带来了巨大的冲击，时至今日我们仍然可以感觉到</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -922,19 +912,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>paroxysm</t>
+          <t>parrot</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n. （感情、动作的）突发：a sudden outburst of emotion or action
-n. （政治、社会领域的）大动荡：a violent disturbance (as of the political or social order)</t>
+          <t>vt. （机械地）模仿，复制： to repeat or imitate, especially without understanding</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>a paroxysm of coughing  突然一阵咳嗽
-Darwin's introduction of the theory of evolution created paroxysms in both religion and science that are stillbeing felt today.   达尔文提出的进化论给宗教界和科学界都带来了巨大的冲击，时至今日我们仍然可以感觉到</t>
+          <t>parrot others blindly  盲目地人云亦云</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -946,17 +934,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>parrot</t>
+          <t>parry</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vt. （机械地）模仿，复制： to repeat or imitate, especially without understanding</t>
+          <t>vt. 躲避（问题）： to evade especially by an adroit answer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>parrot others blindly  盲目地人云亦云</t>
+          <t>He parried the embarrassing question with a clever reply.   他以巧妙的回答躲避了这个令人尴尬的问题</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -968,17 +956,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>parry</t>
+          <t>parsimonious</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>vt. 躲避（问题）： to evade especially by an adroit answer</t>
+          <t>n. 过度节俭的，吝啬的： frugal to the point of stinginess</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>He parried the embarrassing question with a clever reply.   他以巧妙的回答躲避了这个令人尴尬的问题</t>
+          <t>the stereotype of the dour and parsimonious Scotsman  严肃而吝啬的苏格兰人的典型代表</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -990,17 +978,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>parsimonious</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 过度节俭的，吝啬的： frugal to the point of stinginess</t>
+          <t>adj. 偏袒的，偏爱的： inclined to favor one party more than the other: biased</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>the stereotype of the dour and parsimonious Scotsman  严肃而吝啬的苏格兰人的典型代表</t>
+          <t>He is partial to Maverick.   他偏爱小牛队</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1012,17 +1000,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>particularize</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 偏袒的，偏爱的： inclined to favor one party more than the other: biased</t>
+          <t>vt. 详述： to go into or give details or particulars</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>He is partial to Maverick.   他偏爱小牛队</t>
+          <t>particularize the rules you must observe  详述了你需要遵守的规定</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1034,45 +1022,47 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>particularize</t>
+          <t>partisan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>vt. 详述： to go into or give details or particulars</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>particularize the rules you must observe  详述了你需要遵守的规定</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>partisan</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
         <is>
           <t>n. 跟随者，信徒： one who follows the opinions or teachings of another
 n. （狂热、坚定的）拥护者，支持者： one who is intensely or excessively devoted to a cause
 adj. 偏袒的： inclined to favor one side over another</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Partisans of the charismatic leader refuse to tolerate any criticism of him at all.  跟 随 者 们不 允 许任 何有关他们富有魅力的领导的负面言论
 a partisan of the revolution who was even willing to give her life for it  一个愿意为了革命献出自己生命的坚定拥护者
 a shamelessly partisan news report  一篇无耻的、有倾向性的新闻报道</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>pastiche</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>n. （带嘲讽的）模仿： a literary, artistic, musical, or architectural work that imitates the style of previouswork, often with satirical intent
+n. 大杂烩： a pasticcio of incongruous parts; a hodgepodge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>a pastiche of Botticelli's Birth of Venus  波提且利画作《维纳斯的诞生》的仿品
+a pastiche of dishes from many countries  来自众多国家的饮食杂烩</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1082,19 +1072,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pastiche</t>
+          <t>partition</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>n. （带嘲讽的）模仿： a literary, artistic, musical, or architectural work that imitates the style of previouswork, often with satirical intent
-n. 大杂烩： a pasticcio of incongruous parts; a hodgepodge</t>
+          <t>n. 分割，划分： the act or process of dividing something into parts</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>a pastiche of Botticelli's Birth of Venus  波提且利画作《维纳斯的诞生》的仿品
-a pastiche of dishes from many countries  来自众多国家的饮食杂烩</t>
+          <t>the partition of Czechoslovakia into the Czech Republic and Slovakia  捷克斯洛伐克被分裂成捷克共和国和斯洛伐克</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1106,17 +1094,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>partition</t>
+          <t>patent</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>n. 分割，划分： the act or process of dividing something into parts</t>
+          <t>adj. 显而易见的，明显的： readily visible or intelligible: obvious</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>the partition of Czechoslovakia into the Czech Republic and Slovakia  捷克斯洛伐克被分裂成捷克共和国和斯洛伐克</t>
+          <t xml:space="preserve">Unfortunately, the patent flaw of the proposal did not deter the city council from putting it up for a vote.  </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,17 +1116,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>patent</t>
+          <t>pathological</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>adj. 显而易见的，明显的： readily visible or intelligible: obvious</t>
+          <t>adj. 不正常的，病态的： being such to a degree that is extreme, excessive, or markedly abnormal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unfortunately, the patent flaw of the proposal did not deter the city council from putting it up for a vote.  </t>
+          <t>She has a pathological fear of snakes.  她对蛇有一种病态的恐惧</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,17 +1138,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pathological</t>
+          <t>patina</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>adj. 不正常的，病态的： being such to a degree that is extreme, excessive, or markedly abnormal</t>
+          <t>n. 外表： a superficial covering or exterior
+n. （由内而外散发的）氛围，气场： an appearance or aura that is derived from association, habit, orestablished character</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>She has a pathological fear of snakes.  她对蛇有一种病态的恐惧</t>
+          <t>a superficial patina of knowledge  表面肤浅的知识
+Although the winery is brand-new, it has been constructed and decorated to give it a patina of old-worldquaintness.   尽管酿酒厂是全新建造的，但它的构造和装饰都刻意营造出一种古色古香的奇异氛围</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1172,19 +1162,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>patina</t>
+          <t>patrician</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>n. 外表： a superficial covering or exterior
-n. （由内而外散发的）氛围，气场： an appearance or aura that is derived from association, habit, orestablished character</t>
+          <t>n. 贵族，名门望族： a man or woman of high birth or social position
+adj. 贵族的，地位高的： of high birth, rank, or station</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>a superficial patina of knowledge  表面肤浅的知识
-Although the winery is brand-new, it has been constructed and decorated to give it a patina of old-worldquaintness.   尽管酿酒厂是全新建造的，但它的构造和装饰都刻意营造出一种古色古香的奇异氛围</t>
+          <t>the rank of a patrician  贵族等级
+came from a patrician family  出身贵族世家</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1196,19 +1186,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>patrician</t>
+          <t>patriot</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>n. 贵族，名门望族： a man or woman of high birth or social position
-adj. 贵族的，地位高的： of high birth, rank, or station</t>
+          <t>n. 爱国者： one who loves his or her country and supports its authority and interests</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>the rank of a patrician  贵族等级
-came from a patrician family  出身贵族世家</t>
+          <t>The USA PATRIOT Act has generated a great deal of controversy since its enactment.   自实施之日起，美国的《爱国者法案》就产生了大量的争议
+a fanatical patriot  狂热的爱国者</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1220,18 +1209,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>patriot</t>
+          <t>patronize</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n. 爱国者： one who loves his or her country and supports its authority and interests</t>
+          <t>vt. 赞助： provide aid or support for
+v. 以高人一等的态度对待：to adopt an air of condescension toward : treat haughtily or coolly</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The USA PATRIOT Act has generated a great deal of controversy since its enactment.   自实施之日起，美国的《爱国者法案》就产生了大量的争议
-a fanatical patriot  狂热的爱国者</t>
+          <t>a company that loyally patronizes the arts  一个一直以来坚持赞助艺术界的公司
+a director with an unpleasant habit of patronizing even his most gifted actors  一个有着令人讨厌习惯的导演，他即便是对手下最有才华的演员也傲慢地对待</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1243,21 +1233,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>patronize</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>vt. 赞助： provide aid or support for
-v. 以高人一等的态度对待：to adopt an air of condescension toward : treat haughtily or coolly</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>a company that loyally patronizes the arts  一个一直以来坚持赞助艺术界的公司
-a director with an unpleasant habit of patronizing even his most gifted actors  一个有着令人讨厌习惯的导演，他即便是对手下最有才华的演员也傲慢地对待</t>
-        </is>
-      </c>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1267,11 +1247,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>paucity</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>paunchy</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>adj. 大腹便便，大肚子的： having a potbelly</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>a paunchy middle-aged man  一个大腹便便的中年男子</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1281,17 +1269,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>paunchy</t>
+          <t>peck</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>adj. 大腹便便，大肚子的： having a potbelly</t>
+          <t>n. 大量： a considerable amount
+v. （不情愿地）小口咬： to eat reluctantly and in small bites</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>a paunchy middle-aged man  一个大腹便便的中年男子</t>
+          <t>Now you're in a peck of trouble.   现在你有一堆麻烦了
+Fashion models never really eat: they just peck at small meals in expensive restaurants.  时 装 模 特 们几乎不吃东西——他们只是随便咬一口昂贵餐厅里的食物</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1303,19 +1293,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>peck</t>
+          <t>pedagogue</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>n. 大量： a considerable amount
-v. （不情愿地）小口咬： to eat reluctantly and in small bites</t>
+          <t>n. 教育者，老师： a person whose occupation is to give formal instruction in a school</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Now you're in a peck of trouble.   现在你有一堆麻烦了
-Fashion models never really eat: they just peck at small meals in expensive restaurants.  时 装 模 特 们几乎不吃东西——他们只是随便咬一口昂贵餐厅里的食物</t>
+          <t>a boring pedagogue who is called “PPT reader”一个被戏称为“幻灯片朗读机”的无聊老师</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1327,17 +1315,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pedagogue</t>
+          <t>pedant</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>n. 教育者，老师： a person whose occupation is to give formal instruction in a school</t>
+          <t>n. 书呆子，墨守成规之人： one who pays undue attention to book learning and formal rules</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>a boring pedagogue who is called “PPT reader”一个被戏称为“幻灯片朗读机”的无聊老师</t>
+          <t>He is a perfect type of pedant.   他是个十足的书呆子</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1349,17 +1337,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pedant</t>
+          <t>predestine</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>n. 书呆子，墨守成规之人： one who pays undue attention to book learning and formal rules</t>
+          <t>vt. 预先注定： to determine the fate of in advance</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>He is a perfect type of pedant.   他是个十足的书呆子</t>
+          <t>Our victory in the tournament was seemingly predestined.   我们在锦标赛中的胜利似乎是注定好了的</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1371,17 +1359,18 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>predestine</t>
+          <t>pedestrian</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>vt. 预先注定： to determine the fate of in advance</t>
+          <t>n. 行人： a person traveling on foot
+adj. 平庸无奇的，令人厌倦的： causing weariness, restlessness, or lack of interest</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Our victory in the tournament was seemingly predestined.   我们在锦标赛中的胜利似乎是注定好了的</t>
+          <t>a lane reserved for pedestrians  行人专用道</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1393,18 +1382,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pedestrian</t>
+          <t>peep</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>n. 行人： a person traveling on foot
-adj. 平庸无奇的，令人厌倦的： causing weariness, restlessness, or lack of interest</t>
+          <t>n. 一瞥： a brief and sometimes furtive look
+n. 轻声： a slight sound or utterance</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>a lane reserved for pedestrians  行人专用道</t>
+          <t>take a peep at the new neighbors  偷偷瞄了我们的新邻居一眼
+I haven't heard a peep out of the children for an hour.  我已经一个小时没听到孩子们的声音了</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1416,19 +1406,19 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>peep</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>n. 一瞥： a brief and sometimes furtive look
-n. 轻声： a slight sound or utterance</t>
+          <t>n. 同等地位的人，同辈： a person who has equal standing with others
+v. 好奇地凝视： to look narrowly or curiously;</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>take a peep at the new neighbors  偷偷瞄了我们的新邻居一眼
-I haven't heard a peep out of the children for an hour.  我已经一个小时没听到孩子们的声音了</t>
+          <t>stand out among peers  在同辈当中很出众
+peer at the variety of marine life in the aquarium's huge tank  好奇地注视着巨大水族箱中丰富多样的海洋生物</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1440,19 +1430,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>peeve</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>n. 同等地位的人，同辈： a person who has equal standing with others
-v. 好奇地凝视： to look narrowly or curiously;</t>
+          <t>vt. 打扰，惹恼： to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>stand out among peers  在同辈当中很出众
-peer at the variety of marine life in the aquarium's huge tank  好奇地注视着巨大水族箱中丰富多样的海洋生物</t>
+          <t>be constantly peeved by his affected flattery  总是被他做作的谄媚所惹恼</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1464,17 +1452,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>peeve</t>
+          <t>pejorative</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vt. 打扰，惹恼： to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
+          <t>adj. 轻蔑的，贬低的： disparaging; belittling</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>be constantly peeved by his affected flattery  总是被他做作的谄媚所惹恼</t>
+          <t>I agree that I am ambitious, and I don't see it as a pejorative term.  我承认我“雄心勃勃”，但我并不认为</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1486,17 +1474,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>pejorative</t>
+          <t>pellucid</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 轻蔑的，贬低的： disparaging; belittling</t>
+          <t>adj. 透明的： admitting the passage of light
+adj. 清晰明确的，易懂的： transparently clear in style or meaning</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>I agree that I am ambitious, and I don't see it as a pejorative term.  我承认我“雄心勃勃”，但我并不认为</t>
+          <t>pellucid spring water  清澈透明的泉水
+Her poetry has a pellucid simplicity that betrays none of the sweat that went into writing it.   她 的 诗 歌 风格十分清新简约，丝毫没有体现出她为此付出的汗水</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1508,19 +1498,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>pellucid</t>
+          <t>pen</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 透明的： admitting the passage of light
-adj. 清晰明确的，易懂的： transparently clear in style or meaning</t>
+          <t>n. 监狱： a place of confinement for persons held in lawful custody
+v. 关押，监禁： to close or shut in by or as if by barriers</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>pellucid spring water  清澈透明的泉水
-Her poetry has a pellucid simplicity that betrays none of the sweat that went into writing it.   她 的 诗 歌 风格十分清新简约，丝毫没有体现出她为此付出的汗水</t>
+          <t>spent six years in a federal pen  在联邦监狱中度过了六年
+remember to pen up the dogs when visitors come over  客人来的时候别忘了把狗给关起来</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1532,19 +1522,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>penalty</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>n. 监狱： a place of confinement for persons held in lawful custody
-v. 关押，监禁： to close or shut in by or as if by barriers</t>
+          <t>n. （对罪行的）处罚： a punishment established by law or authority for a crime or offense</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>spent six years in a federal pen  在联邦监狱中度过了六年
-remember to pen up the dogs when visitors come over  客人来的时候别忘了把狗给关起来</t>
+          <t>The maximum penalty is 7 years’ imprisonment.  最为严厉的惩罚是七年的有期徒刑</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1556,17 +1544,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>penalty</t>
+          <t>penchant</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>n. （对罪行的）处罚： a punishment established by law or authority for a crime or offense</t>
+          <t>n. 强烈嗜好，迷恋： a strong and continued inclination</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The maximum penalty is 7 years’ imprisonment.  最为严厉的惩罚是七年的有期徒刑</t>
+          <t>a penchant for Champaign  非常喜爱香槟</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1578,17 +1566,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>penchant</t>
+          <t>penitent</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>n. 强烈嗜好，迷恋： a strong and continued inclination</t>
+          <t>adj. 悔过的： feeling or expressing humble or regretful pain or sorrow for sins or offenses</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>a penchant for Champaign  非常喜爱香槟</t>
+          <t>a penitentbusinessman who had come to ask for forgiveness  一个来寻求宽恕的决定悔过自新的商人</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1600,17 +1588,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>penitent</t>
+          <t>pensive</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 悔过的： feeling or expressing humble or regretful pain or sorrow for sins or offenses</t>
+          <t>adj. 沉思的，（尤指）哀思的： given to or marked by long, quiet and often musingly sadthinking</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>a penitentbusinessman who had come to ask for forgiveness  一个来寻求宽恕的决定悔过自新的商人</t>
+          <t>Rainy days often put her in a pensive mood.   雨天总是让她陷入深深的思考之中</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1622,17 +1610,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>pensive</t>
+          <t>penury</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>adj. 沉思的，（尤指）哀思的： given to or marked by long, quiet and often musingly sadthinking</t>
+          <t>n. 贫穷： extreme dearth; barrenness or insufficiency
+n. 吝啬，节俭： extreme and often niggardly frugality</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rainy days often put her in a pensive mood.   雨天总是让她陷入深深的思考之中</t>
+          <t>Some have pessimistically regarded the higher education in China as an invisible and irresistible path topenury.   有人悲观地把中国的高等教育看作是一条通往贫穷的通道——无形但不可抗拒
+They bitterly complained about their father's penury.  他们哀怨地抱怨父亲的节俭</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1644,19 +1634,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>penury</t>
+          <t>perambulate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>n. 贫穷： extreme dearth; barrenness or insufficiency
-n. 吝啬，节俭： extreme and often niggardly frugality</t>
+          <t>v. 徒步穿越，走过： to travel over or through especially on foot for exercise or pleasure</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Some have pessimistically regarded the higher education in China as an invisible and irresistible path topenury.   有人悲观地把中国的高等教育看作是一条通往贫穷的通道——无形但不可抗拒
-They bitterly complained about their father's penury.  他们哀怨地抱怨父亲的节俭</t>
+          <t>We decided to lazily perambulate the entire length of the esplanade and enjoy the fresh air.   我 们 决 定 悠哉地徒步走过滨海大道，享受清新的空气</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1668,17 +1656,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>perambulate</t>
+          <t>perceptible</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>v. 徒步穿越，走过： to travel over or through especially on foot for exercise or pleasure</t>
+          <t>adj. 可察觉的： capable of being perceived especially by the senses</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>We decided to lazily perambulate the entire length of the esplanade and enjoy the fresh air.   我 们 决 定 悠哉地徒步走过滨海大道，享受清新的空气</t>
+          <t>You should be able to note a perceptible temperature change when you add the second reagents.   当你加入第二种试剂的时候，你应该能够察觉到明显的温度变化</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1690,17 +1678,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>perceptible</t>
+          <t>peremptory</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 可察觉的： capable of being perceived especially by the senses</t>
+          <t>adj. 不容反抗的： not allowing contradiction or refusal; imperative
+adj. 爱发号施令的： fond of ordering people around</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>You should be able to note a perceptible temperature change when you add the second reagents.   当你加入第二种试剂的时候，你应该能够察觉到明显的温度变化</t>
+          <t>a peremptory order from the general  将军下达的不容反抗的命令
+The peremptory secretary began telling the crowd of reporters and photographers exactly where they hadto stand.   爱发号施令的秘书开始部署记者和摄影师们应该站在哪里了</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1712,19 +1702,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>peremptory</t>
+          <t>perfervid</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>adj. 不容反抗的： not allowing contradiction or refusal; imperative
-adj. 爱发号施令的： fond of ordering people around</t>
+          <t>adj. 非常热情的： marked by overwrought or exaggerated emotion: excessively fervent</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>a peremptory order from the general  将军下达的不容反抗的命令
-The peremptory secretary began telling the crowd of reporters and photographers exactly where they hadto stand.   爱发号施令的秘书开始部署记者和摄影师们应该站在哪里了</t>
+          <t>perfervid love letter  热情洋溢的情书</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1736,17 +1724,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>perfervid</t>
+          <t>perfidy</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 非常热情的： marked by overwrought or exaggerated emotion: excessively fervent</t>
+          <t>n. 不忠，背信弃义： an act or an instance of disloyalty</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>perfervid love letter  热情洋溢的情书</t>
+          <t>As loyalty unites lovers, so perfidy estranges friends.   忠诚是爱情的纽带，欺诈是友谊的敌人</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1758,17 +1746,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>perfidy</t>
+          <t>perforate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. 不忠，背信弃义： an act or an instance of disloyalty</t>
+          <t>v. 打孔，穿透： to make a hole through</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>As loyalty unites lovers, so perfidy estranges friends.   忠诚是爱情的纽带，欺诈是友谊的敌人</t>
+          <t>to perforate with a pin  用针穿孔</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1780,17 +1768,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>perforate</t>
+          <t>perfunctory</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>v. 打孔，穿透： to make a hole through</t>
+          <t>adj. 例行公事的，敷衍的： characterized by routine or superficiality and often done merely as a duty
+adj. 不感兴趣的： lacking in interest or enthusiasm</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>to perforate with a pin  用针穿孔</t>
+          <t>gave his usual perfunctory nod  例行公事地随便点了个头
+She gave the list only a perfunctory glance.  她无所谓地随便瞅了名单一眼</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1802,21 +1792,15 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>perfunctory</t>
+          <t>perimeter</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 例行公事的，敷衍的： characterized by routine or superficiality and often done merely as a duty
-adj. 不感兴趣的： lacking in interest or enthusiasm</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>gave his usual perfunctory nod  例行公事地随便点了个头
-She gave the list only a perfunctory glance.  她无所谓地随便瞅了名单一眼</t>
-        </is>
-      </c>
+          <t>n. 边界，界限： the line or relatively narrow space that marks the outer limit of something</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1826,12 +1810,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>perimeter</t>
+          <t>periodical</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>n. 边界，界限： the line or relatively narrow space that marks the outer limit of something</t>
+          <t>n. 期刊： a publication that appears at regular intervals
+adj. 周期性的，有固定间隔的： occurring or recurring at regular intervals</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1844,13 +1829,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>periodical</t>
+          <t>peripatetic</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>n. 期刊： a publication that appears at regular intervals
-adj. 周期性的，有固定间隔的： occurring or recurring at regular intervals</t>
+          <t>adj. 巡游的，四处游历的： walking about or from place to place</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1863,15 +1847,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>peripatetic</t>
+          <t>peripheral</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>adj. 巡游的，四处游历的： walking about or from place to place</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>adj. 外围的： related to, located in, or constituting an outer boundary or periphery
+adj. 辅助性的： available to supply something extra when needed</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>development in the peripheral areas of megacities  大城市边缘地区的发展
+The IT consultant suggested that we update the drivers for all of the computer's peripheral devices.   IT  咨询师建议我们更新电脑所有外围辅助设备的驱动程序</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1881,19 +1871,18 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>peripheral</t>
+          <t>perish</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>adj. 外围的： related to, located in, or constituting an outer boundary or periphery
-adj. 辅助性的： available to supply something extra when needed</t>
+          <t>vi. 死亡，消亡： to become destroyed or ruined: cease to exist</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>development in the peripheral areas of megacities  大城市边缘地区的发展
-The IT consultant suggested that we update the drivers for all of the computer's peripheral devices.   IT  咨询师建议我们更新电脑所有外围辅助设备的驱动程序</t>
+          <t>thrive in calamity and perish in soft living  生于忧患，死于安乐
+adapt or perish  适应或是消亡</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1905,18 +1894,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>perish</t>
+          <t>permanent</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vi. 死亡，消亡： to become destroyed or ruined: cease to exist</t>
+          <t>adj. 永恒的： continuing or enduring without fundamental or marked change; lasting forever</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>thrive in calamity and perish in soft living  生于忧患，死于安乐
-adapt or perish  适应或是消亡</t>
+          <t>A temporary compromise has been accepted until a more permanent solution can be agreed upon.   在更为持久的决案被通过之前，一个暂时性的妥协方案被接受了</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1928,19 +1916,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>permanent</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>adj. 永恒的： continuing or enduring without fundamental or marked change; lasting forever</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A temporary compromise has been accepted until a more permanent solution can be agreed upon.   在更为持久的决案被通过之前，一个暂时性的妥协方案被接受了</t>
-        </is>
-      </c>
+          <t>permeable</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1950,11 +1930,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>permeable</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>adj. 有害的： highly injurious or destructive</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Business may be troublesome but idleness is pernicious.  工作烦人，懒散害人</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1964,17 +1952,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>pernicious</t>
+          <t>peroration</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adj. 有害的： highly injurious or destructive</t>
+          <t>n. （演讲的）结束语： the concluding part of a discourse and especially an oration
+n.（正式的）演讲，致辞： a usually formal discourse delivered to an audience</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Business may be troublesome but idleness is pernicious.  工作烦人，懒散害人</t>
+          <t>He summarized his main points in his peroration.   他在结束语中总结了自己的主要观点
+a peroration celebrating the nation's long tradition of religious tolerance and pluralism  为 庆 祝 该 国 长 期以来对于宗教的容忍态度和宗教多元化所做的一个演讲</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1986,19 +1976,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>peroration</t>
+          <t>perpetual</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>n. （演讲的）结束语： the concluding part of a discourse and especially an oration
-n.（正式的）演讲，致辞： a usually formal discourse delivered to an audience</t>
+          <t>adj. 永恒的，不断的： continuing forever：everlasting</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>He summarized his main points in his peroration.   他在结束语中总结了自己的主要观点
-a peroration celebrating the nation's long tradition of religious tolerance and pluralism  为 庆 祝 该 国 长 期以来对于宗教的容忍态度和宗教多元化所做的一个演讲</t>
+          <t>perpetual motion machine  永动机</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2010,17 +1998,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>perpetual</t>
+          <t>persecute</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj. 永恒的，不断的： continuing forever：everlasting</t>
+          <t>vt. 迫害，折磨： to cause persistent suffering to</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>perpetual motion machine  永动机</t>
+          <t>people who were persecuted simply for practicing their religious faith  因为实践宗教信仰而惨遭迫害的人</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2032,17 +2020,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>persecute</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vt. 迫害，折磨： to cause persistent suffering to</t>
+          <t>vi. 坚持不懈，不屈不挠： to persist in or remain constant to a purpose, idea, or task in the face ofobstacles or discouragement</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>people who were persecuted simply for practicing their religious faith  因为实践宗教信仰而惨遭迫害的人</t>
+          <t>Although he was frustrated by the lack of financial resources and support, hepersevered in his scientificresearch.  尽管因为资金不足而受阻，但他仍坚持进行科学研究</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2054,17 +2042,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>persiflage</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>vi. 坚持不懈，不屈不挠： to persist in or remain constant to a purpose, idea, or task in the face ofobstacles or discouragement</t>
+          <t>n. 打趣： good-natured teasing or exchanging of clever remarks</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Although he was frustrated by the lack of financial resources and support, hepersevered in his scientificresearch.  尽管因为资金不足而受阻，但他仍坚持进行科学研究</t>
+          <t>Their tongue-in-cheek persiflage is sometimes mistaken for an exchange of insults by people who don'tknow them.   他们半开玩笑的打趣有时候被不认识他们的人误认为是在互相对骂</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2076,19 +2064,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>persiflage</t>
+          <t>persistence</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>n. 打趣： good-natured teasing or exchanging of clever remarks</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Their tongue-in-cheek persiflage is sometimes mistaken for an exchange of insults by people who don'tknow them.   他们半开玩笑的打趣有时候被不认识他们的人误认为是在互相对骂</t>
-        </is>
-      </c>
+          <t>n. 坚持，持续： uninterrupted or lasting existence</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2098,15 +2082,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>persistence</t>
+          <t>personable</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>n. 坚持，持续： uninterrupted or lasting existence</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>adj. 风度翩翩的，吸引人的： pleasing in personality or appearance; attractive</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>apparently be attracted by a personable young man  明显被一位风度翩翩的少年迷住了</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2116,17 +2104,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>personable</t>
+          <t>perspicacious</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adj. 风度翩翩的，吸引人的： pleasing in personality or appearance; attractive</t>
+          <t>adj. 极敏锐的，有洞察力的： having or showing penetrating mental discernment; clear-sighted</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>apparently be attracted by a personable young man  明显被一位风度翩翩的少年迷住了</t>
+          <t>an impartial and perspicacious judge  一个明镜高悬的法官</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2138,17 +2126,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>perspicacious</t>
+          <t>perspicuity</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 极敏锐的，有洞察力的： having or showing penetrating mental discernment; clear-sighted</t>
+          <t>n. 清晰明了： the quality of being perspicuous; clearness and lucidity</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>an impartial and perspicacious judge  一个明镜高悬的法官</t>
+          <t>The key of modern enterprise system is the prespicuity of property right.   现代企业制度的核心是产权的明晰</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2160,17 +2148,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>perspicuity</t>
+          <t>pertain</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>n. 清晰明了： the quality of being perspicuous; clearness and lucidity</t>
+          <t>v. 有关联： to have a relation or connection; relate</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>The key of modern enterprise system is the prespicuity of property right.   现代企业制度的核心是产权的明晰</t>
+          <t>new evidence that pertains to the accident  与事故相关的新证据</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2182,17 +2170,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>pertain</t>
+          <t>pertinacious</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>v. 有关联： to have a relation or connection; relate</t>
+          <t>adj. 顽固的，固执地坚持的： sticking to an opinion, purpose, or course of action in spite of reason,arguments, or persuasion</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>new evidence that pertains to the accident  与事故相关的新证据</t>
+          <t>The pertinacious boy won’t stop crying unless his desire is satisfied.   这个固执的男孩在愿望没有满足的情况下是不会停止哭泣的</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2204,17 +2192,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>pertinacious</t>
+          <t>pertinent</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 顽固的，固执地坚持的： sticking to an opinion, purpose, or course of action in spite of reason,arguments, or persuasion</t>
+          <t>adj. 相关的，恰当的： having a clear decisive relevance to the matter in hand</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>The pertinacious boy won’t stop crying unless his desire is satisfied.   这个固执的男孩在愿望没有满足的情况下是不会停止哭泣的</t>
+          <t>He impressed the jury with his concise, pertinent answers to the attorney's questions.   他 对 律 师 提 出 的问题的简洁而恰当的回答给陪审团留下了深刻的印象</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2226,17 +2214,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>pertinent</t>
+          <t>perturb</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>adj. 相关的，恰当的： having a clear decisive relevance to the matter in hand</t>
+          <t>vt. 扰乱，使烦躁不安： to trouble the mind of; to make uneasy</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>He impressed the jury with his concise, pertinent answers to the attorney's questions.   他 对 律 师 提 出 的问题的简洁而恰当的回答给陪审团留下了深刻的印象</t>
+          <t>perturbed me enough to keep me awake that night  让我烦躁到当晚失眠</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2248,17 +2236,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>perturb</t>
+          <t>peruse</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vt. 扰乱，使烦躁不安： to trouble the mind of; to make uneasy</t>
+          <t>v. 细读： to read or examine, typically with great care</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>perturbed me enough to keep me awake that night  让我烦躁到当晚失眠</t>
+          <t>perused the manuscript to check for grammatical errors  细读手稿以检查语法错误</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2270,17 +2258,18 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>peruse</t>
+          <t>pervade</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>v. 细读： to read or examine, typically with great care</t>
+          <t>vt. 弥漫，充满： to be present throughout; permeate</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>perused the manuscript to check for grammatical errors  细读手稿以检查语法错误</t>
+          <t>The mixed smell of sawdust and glue pervaded the whole factory.  锯 末 与 胶 水 的 味 道 弥 漫 了 整 个 工厂
+the corruption that pervades every stratum of society  充斥在社会每个阶层中的腐败</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2292,18 +2281,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>pervade</t>
+          <t>pessimistic</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vt. 弥漫，充满： to be present throughout; permeate</t>
+          <t>adj. 悲观的： tending to stress the negative or unfavorable or to take the gloomiest possible view</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>The mixed smell of sawdust and glue pervaded the whole factory.  锯 末 与 胶 水 的 味 道 弥 漫 了 整 个 工厂
-the corruption that pervades every stratum of society  充斥在社会每个阶层中的腐败</t>
+          <t>With that pessimistic attitude, it's no wonder you're depressed.   你的人生观如此悲观，难怪你会感到压抑</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2315,17 +2303,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>pessimistic</t>
+          <t>petition</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. 悲观的： tending to stress the negative or unfavorable or to take the gloomiest possible view</t>
+          <t>n. 请愿，正式的申请： a solemn supplication or request to a superior authority; an entreaty
+v. （尤指正式地）请求： to make a request, especially a formal written one</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>With that pessimistic attitude, it's no wonder you're depressed.   你的人生观如此悲观，难怪你会感到压抑</t>
+          <t>a petition for divorce  离婚申请书
+She is petitioning to regain custody of the child.  为了重新获得孩子的监护权，她提出了正式申请</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2337,19 +2327,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>petition</t>
+          <t>petrify</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n. 请愿，正式的申请： a solemn supplication or request to a superior authority; an entreaty
-v. （尤指正式地）请求： to make a request, especially a formal written one</t>
+          <t>v. 使僵化，失去活力： to cause to become stiff or stone-like; deaden</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>a petition for divorce  离婚申请书
-She is petitioning to regain custody of the child.  为了重新获得孩子的监护权，她提出了正式申请</t>
+          <t>Pressure from family has petrified his once innovative mind.   家庭的压力使他的头脑失去了往日的创造力</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2361,17 +2349,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>petrify</t>
+          <t>petty</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>v. 使僵化，失去活力： to cause to become stiff or stone-like; deaden</t>
+          <t>adj. 细微的，不重要的： of small importance; trivial</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pressure from family has petrified his once innovative mind.   家庭的压力使他的头脑失去了往日的创造力</t>
+          <t>play petty tricks  耍小聪明</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2383,17 +2371,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>petty</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 细微的，不重要的： of small importance; trivial</t>
+          <t>adj. 不寻常的，非凡的： being out of the ordinary;extraordinary; outstanding</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>play petty tricks  耍小聪明</t>
+          <t>the phenomenal growth that the suburb has experienced over the last decade  过去几十年间郊区所经历的令人称奇的快速发展</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2405,17 +2393,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>philanthropic</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 不寻常的，非凡的： being out of the ordinary;extraordinary; outstanding</t>
+          <t>adj. 博爱的，为他人着想的： having or showing a concern for the welfare of others</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>the phenomenal growth that the suburb has experienced over the last decade  过去几十年间郊区所经历的令人称奇的快速发展</t>
+          <t>the philanthropic aims of the organization  这个机构的博爱、利他的目标</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2427,17 +2415,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>philanthropic</t>
+          <t>philistine</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 博爱的，为他人着想的： having or showing a concern for the welfare of others</t>
+          <t>n. 市侩（注重物质而鄙视智慧或艺术的人）： a person who is guided by materialism and is usuallydisdainful of intellectual or artistic values</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>the philanthropic aims of the organization  这个机构的博爱、利他的目标</t>
+          <t>The philistine's critics sometime limit artists’ imagine.   市侩之人的批评有时会限制艺术家的想象力</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2449,17 +2437,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>philistine</t>
+          <t>phlegmatic</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 市侩（注重物质而鄙视智慧或艺术的人）： a person who is guided by materialism and is usuallydisdainful of intellectual or artistic values</t>
+          <t>adj. 冷静的，无感情的，淡漠的： having or suggesting a calm, sluggish temperament; unemotional</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>The philistine's critics sometime limit artists’ imagine.   市侩之人的批评有时会限制艺术家的想象力</t>
+          <t>a strangely phlegmatic response to what should have been happy news  对本该是一个让人开心的新闻的冷漠回复</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2471,17 +2459,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>phlegmatic</t>
+          <t>piddling</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>adj. 冷静的，无感情的，淡漠的： having or suggesting a calm, sluggish temperament; unemotional</t>
+          <t>adj. 微不足道的： so trifling or trivial as to be beneath one's consideration</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>a strangely phlegmatic response to what should have been happy news  对本该是一个让人开心的新闻的冷漠回复</t>
+          <t>raised a piddling objection to the plan  对计划提出了一个微不足道的反对</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2493,17 +2481,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>piddling</t>
+          <t>piebald</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adj. 微不足道的： so trifling or trivial as to be beneath one's consideration</t>
+          <t>adj. 杂色的： of different colors
+adj. 混合的，杂糅而成的： consisting of many things of different sorts</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>raised a piddling objection to the plan  对计划提出了一个微不足道的反对</t>
+          <t>a piebald horse  一匹杂色马
+his piebald ethnic background  他身为混血儿的背景</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2515,19 +2505,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>piebald</t>
+          <t>pigment</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adj. 杂色的： of different colors
-adj. 混合的，杂糅而成的： consisting of many things of different sorts</t>
+          <t>n. 颜料： a substance that imparts black or white or a color to other materials
+vt. 给…上颜色： to color with or as if with pigment</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>a piebald horse  一匹杂色马
-his piebald ethnic background  他身为混血儿的背景</t>
+          <t>natural red pigment  天然红色染料
+pigmented silk  染过色的丝绸</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2539,19 +2529,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>pigment</t>
+          <t>pilfer</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 颜料： a substance that imparts black or white or a color to other materials
-vt. 给…上颜色： to color with or as if with pigment</t>
+          <t>v. 偷窃： to steal stealthily in small amounts</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>natural red pigment  天然红色染料
-pigmented silk  染过色的丝绸</t>
+          <t>pilfer the commercial document  偷窃商业文件</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2563,17 +2551,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pilfer</t>
+          <t>pillar</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>v. 偷窃： to steal stealthily in small amounts</t>
+          <t>n. 柱子： a firm upright support for a superstructure
+n. （物质、精神等方面的）支柱： something or someone to which one looks for support</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>pilfer the commercial document  偷窃商业文件</t>
+          <t>stone pillars that supported the hall  支撑大厅的石柱
+My father has been my pillar throughout this crisis.   整场危机之中我父亲都是我的支柱。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2585,19 +2575,18 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>pillar</t>
+          <t>pillory</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n. 柱子： a firm upright support for a superstructure
-n. （物质、精神等方面的）支柱： something or someone to which one looks for support</t>
+          <t>vt. 被示众嘲弄： to expose to public contempt, ridicule, or scorn</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>stone pillars that supported the hall  支撑大厅的石柱
-My father has been my pillar throughout this crisis.   整场危机之中我父亲都是我的支柱。</t>
+          <t>The candidate mercilessly pilloried his opponent.   候 选 人 在 大 众 面 前 无 情 地 羞 辱 他 的 对 手 。
+Heresigned after being pilloried by the press.  在遭到媒体嘲弄之后他愤然辞职。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2609,46 +2598,47 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>pillory</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>vt. 被示众嘲弄： to expose to public contempt, ridicule, or scorn</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>The candidate mercilessly pilloried his opponent.   候 选 人 在 大 众 面 前 无 情 地 羞 辱 他 的 对 手 。
-Heresigned after being pilloried by the press.  在遭到媒体嘲弄之后他愤然辞职。</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>pilot</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
         <is>
           <t>n. 领航员，飞行员： one employed to steer a ship
 adj. 初步的，试验性的： serving as a tentative model for future experiment or development
 vt. 带领通过： lead or conduct over a usually difficult course</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>a jet pilot  喷气式飞机飞行员
 They carried out a pilot study before the larger, more expensive project was started  在更大规模、更为昂贵的项目开始之前，他们进行了初步研究。
 The lobbyists piloted the bill through the Senate.   游说集团使法案得到参议院的批准。</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>pine</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>vi. 渴望，奢望： to yearn intensely and persistently especially for something unattainable
+vi. 因渴望而憔悴： to lose vigor, health, or flesh (as through grief)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>pine for a lost love  渴望那段逝去的爱情
+Separated by their families, the lovers pined away.   这对恋人因为被家人拆散而日益憔悴。</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2658,19 +2648,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>pine</t>
+          <t>pinnacle</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>vi. 渴望，奢望： to yearn intensely and persistently especially for something unattainable
-vi. 因渴望而憔悴： to lose vigor, health, or flesh (as through grief)</t>
+          <t>n. 顶峰： the highest point of development or achievement</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>pine for a lost love  渴望那段逝去的爱情
-Separated by their families, the lovers pined away.   这对恋人因为被家人拆散而日益憔悴。</t>
+          <t>a singer who has reached the pinnacle of career  已到达事业巅峰的歌手</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2682,44 +2670,46 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>pinnacle</t>
+          <t>pinpoint</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>n. 顶峰： the highest point of development or achievement</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>a singer who has reached the pinnacle of career  已到达事业巅峰的歌手</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>pinpoint</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
         <is>
           <t>adj. 非常精确的： located, fixed, or directed with extreme precision
 v. 精确定位或确认： to locate, fix, determine, or identify with precision</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>The commander demanded the pinpoint location of artillery fire.   指挥官需要火炮攻击的精确位置。
 pinpoint the target by tracking calls from his cellphone  通过跟踪手机信号精确定位了目标
 pinpoint thecause of failure  准确找出失败的原因</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>piquant</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>adj. 辛辣开胃的： pleasantly pungent or tart in taste
+adj. 令人振奋的： appealingly provocative</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>a piquant sauce  开胃的酱汁
+a piquant glance  充满挑逗的一瞥</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2729,19 +2719,19 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>piquant</t>
+          <t>pique</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj. 辛辣开胃的： pleasantly pungent or tart in taste
-adj. 令人振奋的： appealingly provocative</t>
+          <t>vt. 使愤怒： to arouse anger or resentment in
+vt. 激起，刺激： to excite or arouse especially by a provocation, challenge, or rebuff</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>a piquant sauce  开胃的酱汁
-a piquant glance  充满挑逗的一瞥</t>
+          <t>She was greatly piqued when they refused her invitation.  他们拒绝她的邀请让她很生气。
+radical remarks that pique their curiosity  引起他们兴趣的激进评论</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2753,19 +2743,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>pique</t>
+          <t>pirate</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vt. 使愤怒： to arouse anger or resentment in
-vt. 激起，刺激： to excite or arouse especially by a provocation, challenge, or rebuff</t>
+          <t>vt. 盗版，盗用： to take or make use of under a guise of authority but without actual right
+n. 海盗： a robber on the high seas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>She was greatly piqued when they refused her invitation.  他们拒绝她的邀请让她很生气。
-radical remarks that pique their curiosity  引起他们兴趣的激进评论</t>
+          <t>a pirated version of the software  盗版软件
+little boys dreaming of sailing as pirates  梦想成为海盗的小男孩</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2777,19 +2767,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>pirate</t>
+          <t>pithy</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vt. 盗版，盗用： to take or make use of under a guise of authority but without actual right
-n. 海盗： a robber on the high seas</t>
+          <t>adj. 精练的，简洁的： precisely meaningful; forceful and brief</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>a pirated version of the software  盗版软件
-little boys dreaming of sailing as pirates  梦想成为海盗的小男孩</t>
+          <t>The professor gave a pithy introduction to this course.   教授就这门课程做了简短的介绍。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2801,17 +2789,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>pithy</t>
+          <t>pitiless</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 精练的，简洁的： precisely meaningful; forceful and brief</t>
+          <t>adj. 没有同情心的： devoid of or unmoved by pity</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>The professor gave a pithy introduction to this course.   教授就这门课程做了简短的介绍。</t>
+          <t>a pitiless humiliation  毫不留情的羞辱</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2823,17 +2811,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>pitiless</t>
+          <t>pittance</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>adj. 没有同情心的： devoid of or unmoved by pity</t>
+          <t>n. 少量津贴：a small portion, amount, or allowance</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>a pitiless humiliation  毫不留情的羞辱</t>
+          <t>The internship offers only a pittance for a salary, but it is a great opportunity to gain experience.   实 习 所能挣到的报酬是很少的，但是它提供了获得经验的绝佳机会。</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2845,17 +2833,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>pittance</t>
+          <t>placate</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>n. 少量津贴：a small portion, amount, or allowance</t>
+          <t>vt. （通过让步以）平息抚慰： to lessen the anger or agitation of</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>The internship offers only a pittance for a salary, but it is a great opportunity to gain experience.   实 习 所能挣到的报酬是很少的，但是它提供了获得经验的绝佳机会。</t>
+          <t>The colonists implemented a new policy to placate local opposition  殖民者采取新政策以缓和当地的反抗情绪。</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2867,17 +2855,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>placate</t>
+          <t>placebo</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vt. （通过让步以）平息抚慰： to lessen the anger or agitation of</t>
+          <t>n. 安慰性的事物： something of no intrinsic remedial value that is used to appease or reassureanother</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>The colonists implemented a new policy to placate local opposition  殖民者采取新政策以缓和当地的反抗情绪。</t>
+          <t>Candies are often adopted as the placebo for the dying patients.   糖果通常作为安慰剂给重症患者服用。</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2889,17 +2877,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>placebo</t>
+          <t>plagiarize</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>n. 安慰性的事物： something of no intrinsic remedial value that is used to appease or reassureanother</t>
+          <t>v. 剽窃，抄袭：to steal and pass off (the ideas or words of another) as one's own</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Candies are often adopted as the placebo for the dying patients.   糖果通常作为安慰剂给重症患者服用。</t>
+          <t>In scientific community, plagiarizing other’s paper is a felony.  在学术界，剽窃他人的论文是一项重罪。</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2911,17 +2899,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>plagiarize</t>
+          <t>plangent</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>v. 剽窃，抄袭：to steal and pass off (the ideas or words of another) as one's own</t>
+          <t>adj. 轰鸣的： having a loud reverberating sound
+adj. 凄凉的，哀伤的： having an expressive and especially plaintive quality</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>In scientific community, plagiarizing other’s paper is a felony.  在学术界，剽窃他人的论文是一项重罪。</t>
+          <t>The camera man was stunned by the plangent roar of wild animals.   摄影师被野生动物发出的怒号吓得不知所措。
+a plangent song about a long-ago love  一首关于往日爱情的凄凉歌曲</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2933,19 +2923,19 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>plangent</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>adj. 轰鸣的： having a loud reverberating sound
-adj. 凄凉的，哀伤的： having an expressive and especially plaintive quality</t>
+          <t>adj. 可塑的： susceptible of being modified in form or nature
+adj. 虚假的，做作的： lacking in natural or spontaneous quality</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>The camera man was stunned by the plangent roar of wild animals.   摄影师被野生动物发出的怒号吓得不知所措。
-a plangent song about a long-ago love  一首关于往日爱情的凄凉歌曲</t>
+          <t>the plastic quality of modeling clay  模型泥的可塑性质
+There's usually a plastic cordiality at these corporate events.  通常在公司的活动上都有一种虚假的热情和友好。</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2957,19 +2947,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>plastic</t>
+          <t>plateau</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 可塑的： susceptible of being modified in form or nature
-adj. 虚假的，做作的： lacking in natural or spontaneous quality</t>
+          <t>n. 高原： a usually extensive level land area raised sharply above adjacent land on at least one side
+n. 稳定时期，平台期： a relatively stable level, period, or state</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>the plastic quality of modeling clay  模型泥的可塑性质
-There's usually a plastic cordiality at these corporate events.  通常在公司的活动上都有一种虚假的热情和友好。</t>
+          <t>Qinghai-Tibetan Plateau  青藏高原
+reached a plateau of development  达到了发展的稳定期</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2981,21 +2971,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>plateau</t>
+          <t>platitude</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>n. 高原： a usually extensive level land area raised sharply above adjacent land on at least one side
-n. 稳定时期，平台期： a relatively stable level, period, or state</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Qinghai-Tibetan Plateau  青藏高原
-reached a plateau of development  达到了发展的稳定期</t>
-        </is>
-      </c>
+          <t>n. 陈词滥调： a trite or banal remark or statement, especially one expressed as if it were original orsignificant</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3005,15 +2989,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>platitude</t>
+          <t>plausible</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>n. 陈词滥调： a trite or banal remark or statement, especially one expressed as if it were original orsignificant</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>adj. 看似有理的： superficially fair, reasonable, or valuable but often specious</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>a plausible argument  看起来头头是道的说理</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3023,19 +3011,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>plausible</t>
+          <t>pleat</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 看似有理的： superficially fair, reasonable, or valuable but often specious</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>a plausible argument  看起来头头是道的说理</t>
-        </is>
-      </c>
+          <t>n./vt. 打褶： fold</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3045,15 +3029,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>pleat</t>
+          <t>plentitude</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>n./vt. 打褶： fold</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>n. 大量： an ample amount or quantity; an abundance</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>a plentitude of lumber for the current housing market  充足的家具木材供给</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3063,17 +3051,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>plentitude</t>
+          <t>plethora</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>n. 大量： an ample amount or quantity; an abundance</t>
+          <t>n. 过量，过剩： excess, superfluity</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>a plentitude of lumber for the current housing market  充足的家具木材供给</t>
+          <t>a plethora of advice and a paucity of assistance  给出大量建议而鲜有实质性援助</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3085,17 +3073,19 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>plethora</t>
+          <t>pliable</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>n. 过量，过剩： excess, superfluity</t>
+          <t>adj. 易弯曲的，柔软的： supple enough to bend freely or repeatedly without breaking
+adj. 易受影响的，温顺的： easily influenced, persuaded, or swayed</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>a plethora of advice and a paucity of assistance  给出大量建议而鲜有实质性援助</t>
+          <t>pliable optical fiber  柔软的光纤
+He took advantage of the pliable mind of youth.  他利用了年轻人容易受他人教唆的特点。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3107,19 +3097,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>pliable</t>
+          <t>pliant</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 易弯曲的，柔软的： supple enough to bend freely or repeatedly without breaking
-adj. 易受影响的，温顺的： easily influenced, persuaded, or swayed</t>
+          <t>adj. 易弯曲的： easily bent or flexed</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>pliable optical fiber  柔软的光纤
-He took advantage of the pliable mind of youth.  他利用了年轻人容易受他人教唆的特点。</t>
+          <t>a pliant young tree  易弯曲的小树</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3131,17 +3119,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>pliant</t>
+          <t>plight</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 易弯曲的： easily bent or flexed</t>
+          <t>n. 困境： a situation, especially a bad or unfortunate one</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>a pliant young tree  易弯曲的小树</t>
+          <t>He was in a plight, trying to decide whether or not to take the job.  他处在不知道是否应该接受这份工作的困境之中。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3153,17 +3141,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>plight</t>
+          <t>plod</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>n. 困境： a situation, especially a bad or unfortunate one</t>
+          <t>v. 沉重缓慢地走： to walk heavily or slowly</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>He was in a plight, trying to decide whether or not to take the job.  他处在不知道是否应该接受这份工作的困境之中。</t>
+          <t>The soldiers slowly plodded across the marsh.  士兵们慢慢走过沼泽地。</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3175,17 +3163,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>plod</t>
+          <t>pluck</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>v. 沉重缓慢地走： to walk heavily or slowly</t>
+          <t>n. 敢于面对困难的勇气： resourceful courage and daring in the face of difficulties
+v. 弹奏（弦乐）： to sound (the strings of an instrument) by pulling and releasing them with the fingersor a plectrum</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>The soldiers slowly plodded across the marsh.  士兵们慢慢走过沼泽地。</t>
+          <t>full of pluck  充满了勇气
+pluck the harp  弹奏竖琴</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3197,19 +3187,19 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>pluck</t>
+          <t>plumb</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>n. 敢于面对困难的勇气： resourceful courage and daring in the face of difficulties
-v. 弹奏（弦乐）： to sound (the strings of an instrument) by pulling and releasing them with the fingersor a plectrum</t>
+          <t>vt. 测深度： to measure the depth of (as a body of water) typically with a weighted line
+adj. 垂直的： exactly vertical</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>full of pluck  充满了勇气
-pluck the harp  弹奏竖琴</t>
+          <t>We will plumb the bay to make sure it was deep enough for the huge vessel.   为了确证水深足够容纳这艘巨轮，我们将会测量海湾的深度。
+questions that plumb the depths of stupidity  测量智商下限的问题</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3221,19 +3211,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>plumb</t>
+          <t>plummet</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vt. 测深度： to measure the depth of (as a body of water) typically with a weighted line
-adj. 垂直的： exactly vertical</t>
+          <t>v. 突然下降： to decline suddenly and steeply</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>We will plumb the bay to make sure it was deep enough for the huge vessel.   为了确证水深足够容纳这艘巨轮，我们将会测量海湾的深度。
-questions that plumb the depths of stupidity  测量智商下限的问题</t>
+          <t>Overall GPA plummeted 0.  5 points.   平均学分绩骤降 0.  5。</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3245,17 +3233,19 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>plummet</t>
+          <t>plump</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>v. 突然下降： to decline suddenly and steeply</t>
+          <t>adj. 丰满的： well-rounded and full in form
+vi. 鼎力支持，赞口不绝： to give full support or praise</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Overall GPA plummeted 0.  5 points.   平均学分绩骤降 0.  5。</t>
+          <t>In Tang Dynasty, being plump was a sign of ultimate beauty.   在唐代，身材丰满是最美丽的象征。
+We will plump for any candidate who supports stem cell research.  我们会鼎力支持那些拥护干细胞研究的候选人。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3267,19 +3257,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>plump</t>
+          <t>plunge</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>adj. 丰满的： well-rounded and full in form
-vi. 鼎力支持，赞口不绝： to give full support or praise</t>
+          <t>vi. 突然下降： to descend or dip suddenly
+vt. 插入，刺入： to cause to penetrate or enter quickly and forcibly into something</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>In Tang Dynasty, being plump was a sign of ultimate beauty.   在唐代，身材丰满是最美丽的象征。
-We will plump for any candidate who supports stem cell research.  我们会鼎力支持那些拥护干细胞研究的候选人。</t>
+          <t>stock’s value plunged  股票价值骤然下降
+plunged the dagger into his chest  把匕首刺入他的胸膛</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3291,19 +3281,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>plunge</t>
+          <t>polarize</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>vi. 突然下降： to descend or dip suddenly
-vt. 插入，刺入： to cause to penetrate or enter quickly and forcibly into something</t>
+          <t>vt. 使分开对立，两极分化： to break up into opposing factions or groupings</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>stock’s value plunged  股票价值骤然下降
-plunged the dagger into his chest  把匕首刺入他的胸膛</t>
+          <t>The controversy has polarized voters into pro-abortion and anti-abortion groups.   这个问题使得选民分化成支持堕胎和反对堕胎两个群体。</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3315,19 +3303,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>polarize</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>vt. 使分开对立，两极分化： to break up into opposing factions or groupings</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>The controversy has polarized voters into pro-abortion and anti-abortion groups.   这个问题使得选民分化成支持堕胎和反对堕胎两个群体。</t>
-        </is>
-      </c>
+          <t>polemic</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3337,11 +3317,21 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>polemic</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>adj. 有教养的： showing a high degree of refinement and the assurance that comes from wide socialexperience
+adj. 擦亮的： having a shiny surface or finish</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>He maintained a very polished tone in his correspondences.  他在通信中保持着一种极有教养的口吻。
+She could see her face reflected in the polished hood of the car.   她可以通过引擎盖光亮的表面看到自己的脸。</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3351,19 +3341,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>polished</t>
+          <t>politic</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>adj. 有教养的： showing a high degree of refinement and the assurance that comes from wide socialexperience
-adj. 擦亮的： having a shiny surface or finish</t>
+          <t>adj. 精明能干的： characterized by shrewdness in managing, contriving, or dealing
+adj. 合时宜的，明智的： suitable for bringing about a desired result under the circumstances</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>He maintained a very polished tone in his correspondences.  他在通信中保持着一种极有教养的口吻。
-She could see her face reflected in the polished hood of the car.   她可以通过引擎盖光亮的表面看到自己的脸。</t>
+          <t xml:space="preserve">a politic secretary  能干的秘书
+It probably would not be politic to tell your boss that his latest idea is the worst thing you've ever heard.  </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3375,19 +3365,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>politic</t>
+          <t>pompous</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>adj. 精明能干的： characterized by shrewdness in managing, contriving, or dealing
-adj. 合时宜的，明智的： suitable for bringing about a desired result under the circumstances</t>
+          <t>adj. 浮夸的： excessively elevated or ornate
+adj. 傲慢的： having or exhibiting self-importance</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">a politic secretary  能干的秘书
-It probably would not be politic to tell your boss that his latest idea is the worst thing you've ever heard.  </t>
+          <t>The candidate was given to windy rhetorical speeches.   听众们听了一场冗长而浮夸的演讲。
+a pompous politician who insisted on boarding the plane first  一个坚持要求优先登机的傲慢政客</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3399,19 +3389,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>pompous</t>
+          <t>ponderable</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj. 浮夸的： excessively elevated or ornate
-adj. 傲慢的： having or exhibiting self-importance</t>
+          <t>adj. 有价值的，值得考虑的： considerable enough to be weighed or assessed</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>The candidate was given to windy rhetorical speeches.   听众们听了一场冗长而浮夸的演讲。
-a pompous politician who insisted on boarding the plane first  一个坚持要求优先登机的傲慢政客</t>
+          <t>Climate change has exerted a ponderable influence on world politics.  气候变化对世界政局有着不容忽视的影响。</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3423,17 +3411,19 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ponderable</t>
+          <t>ponderous</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>adj. 有价值的，值得考虑的： considerable enough to be weighed or assessed</t>
+          <t>adj. 沉重的： of very great weight
+adj. 沉闷无聊的： oppressively or unpleasantly dull</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Climate change has exerted a ponderable influence on world politics.  气候变化对世界政局有着不容忽视的影响。</t>
+          <t>a ponderous machine  沉重的机器
+a ponderous sermon no one really cares  实际上无人关心的沉闷无聊的布道</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3445,19 +3435,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ponderous</t>
+          <t>pontificate</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 沉重的： of very great weight
-adj. 沉闷无聊的： oppressively or unpleasantly dull</t>
+          <t>vi. 傲慢地做或说：to speak or express opinions in a pompous or dogmatic way</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>a ponderous machine  沉重的机器
-a ponderous sermon no one really cares  实际上无人关心的沉闷无聊的布道</t>
+          <t>pontificate to show a sense of superiority  傲慢地说以显示高人一等的优越感</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3469,17 +3457,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>pontificate</t>
+          <t>pore</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vi. 傲慢地做或说：to speak or express opinions in a pompous or dogmatic way</t>
+          <t>vi. 仔细浏览，仔细研究： to read or study attentively(usually used with over)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>pontificate to show a sense of superiority  傲慢地说以显示高人一等的优越感</t>
+          <t xml:space="preserve">The committee will probably pore over the results of the study for a long time before making their decision.  </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3491,19 +3479,15 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>pore</t>
+          <t>porous</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>vi. 仔细浏览，仔细研究： to read or study attentively(usually used with over)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The committee will probably pore over the results of the study for a long time before making their decision.  </t>
-        </is>
-      </c>
+          <t>adj. 多孔可渗透的： admitting the passage of gas or liquid through pores or interstices</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3513,15 +3497,21 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>porous</t>
+          <t>portentous</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 多孔可渗透的： admitting the passage of gas or liquid through pores or interstices</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>adj. 预兆性的，凶兆的： being or showing a sign of evil or calamity to come
+adj. 勾起兴趣的，令人遐想的：eliciting amazement or wonder</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>an eerie and portentous stillness  阴森神秘，充满凶兆的寂静
+The way in which he could bring together opposing forces was truly portentous.  他 整 合 两股 对 抗势 力的方法着实令人好奇</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3531,19 +3521,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>portentous</t>
+          <t>poseur</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>adj. 预兆性的，凶兆的： being or showing a sign of evil or calamity to come
-adj. 勾起兴趣的，令人遐想的：eliciting amazement or wonder</t>
+          <t>n. 故作姿态、不真诚的人：an affected or insincere person</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>an eerie and portentous stillness  阴森神秘，充满凶兆的寂静
-The way in which he could bring together opposing forces was truly portentous.  他 整 合 两股 对 抗势 力的方法着实令人好奇</t>
+          <t>She is such a poseur and you will never know if she is really crying or pretending.   她就是个爱装的人，你从不知道她是真的在哭还是只是假装而已。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3555,17 +3543,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>poseur</t>
+          <t>posit</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>n. 故作姿态、不真诚的人：an affected or insincere person</t>
+          <t>vt.假定，断定：to assume or affirm the existence of</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>She is such a poseur and you will never know if she is really crying or pretending.   她就是个爱装的人，你从不知道她是真的在哭还是只是假装而已。</t>
+          <t>The committee posited that he was qualified for the election.  委员会假定他是够格参加选举的。</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3577,17 +3565,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>posit</t>
+          <t>postulate</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>vt.假定，断定：to assume or affirm the existence of</t>
+          <t>n. 前提条件： something taken as being true or factual and used as a starting point for a course ofaction or reasoning
+v. 假定为真： to assume or claim as true, existent, or necessary</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>The committee posited that he was qualified for the election.  委员会假定他是够格参加选举的。</t>
+          <t>One of the postulates that the true agnostic rejects is the assumption that it is even possible for us to knowwhether God exists.   我们无法知道上帝是否存在——这是一个真正的不可知论者所反对的假设。
+postulate a causal relationship  假定存在因果关系</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3599,19 +3589,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>postulate</t>
+          <t>posture</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>n. 前提条件： something taken as being true or factual and used as a starting point for a course ofaction or reasoning
-v. 假定为真： to assume or claim as true, existent, or necessary</t>
+          <t>n. 姿势，姿态： a general way of holding the body
+vi. 故作姿态，装模作样： to assume an artificial or pretended attitude</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>One of the postulates that the true agnostic rejects is the assumption that it is even possible for us to knowwhether God exists.   我们无法知道上帝是否存在——这是一个真正的不可知论者所反对的假设。
-postulate a causal relationship  假定存在因果关系</t>
+          <t>A good upright posture will prevent backaches.  良好的站姿可以预防背痛。
+postured to impress  故作姿态以给别人留下印象</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3623,19 +3613,19 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>posture</t>
+          <t>potable</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n. 姿势，姿态： a general way of holding the body
-vi. 故作姿态，装模作样： to assume an artificial or pretended attitude</t>
+          <t>n. 饮品，尤指有酒精饮料： a beverage, especially an alcoholic beverage
+adj. 适于饮用的： suitable for drinking</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>A good upright posture will prevent backaches.  良好的站姿可以预防背痛。
-postured to impress  故作姿态以给别人留下印象</t>
+          <t>Potables are offered at bar counter for free.   饮料可以在吧台免费领取。
+Price of the potable water has soared.  饮用水价格飙升。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3647,19 +3637,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>potable</t>
+          <t>potentate</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n. 饮品，尤指有酒精饮料： a beverage, especially an alcoholic beverage
-adj. 适于饮用的： suitable for drinking</t>
+          <t>n. 有权的人： one who has the power and position to rule over others</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Potables are offered at bar counter for free.   饮料可以在吧台免费领取。
-Price of the potable water has soared.  饮用水价格飙升。</t>
+          <t>a son of a potentate  官二代</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3671,17 +3659,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>potentate</t>
+          <t>potentiate</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n. 有权的人： one who has the power and position to rule over others</t>
+          <t>vt. 激活，加强： to make effective or active, or more effective or more active</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>a son of a potentate  官二代</t>
+          <t>additives to potentiate the drug  增强药效的添加剂</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3693,17 +3681,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>potentiate</t>
+          <t>pout</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vt. 激活，加强： to make effective or active, or more effective or more active</t>
+          <t>vi. （特别是撅嘴）表示不悦： to show displeasure, especially by thrusting out the lips or wearing asullen expression</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>additives to potentiate the drug  增强药效的添加剂</t>
+          <t>She pouted and didn't say a word to anyone all morning.  她整个早上都闷闷不乐，没和别人说一句话。</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3715,17 +3703,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>pout</t>
+          <t>practitioner</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>vi. （特别是撅嘴）表示不悦： to show displeasure, especially by thrusting out the lips or wearing asullen expression</t>
+          <t>n. 职业人士： one who practices a profession</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>She pouted and didn't say a word to anyone all morning.  她整个早上都闷闷不乐，没和别人说一句话。</t>
+          <t>medical practitioner  医护人员，行医者</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3737,17 +3725,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>practitioner</t>
+          <t>prairie</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>n. 职业人士： one who practices a profession</t>
+          <t>n. 大草原： an extensive area of flat or rolling, predominantly treeless grassland</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>medical practitioner  医护人员，行医者</t>
+          <t>Canadian Prairie  加拿大大草原地区</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3759,17 +3747,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>prairie</t>
+          <t>prate</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 大草原： an extensive area of flat or rolling, predominantly treeless grassland</t>
+          <t>vi. 闲聊，空谈： to talk long and idly</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Canadian Prairie  加拿大大草原地区</t>
+          <t>They have been prating on the phone for hours.  他们已经煲了几个小时的电话粥了。</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3781,17 +3769,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>prate</t>
+          <t>preach</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>vi. 闲聊，空谈： to talk long and idly</t>
+          <t>vi. 传道，布道： to deliver a sermon</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>They have been prating on the phone for hours.  他们已经煲了几个小时的电话粥了。</t>
+          <t>a minister who loves to preach  一个爱布道的牧师</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3803,17 +3791,19 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>preach</t>
+          <t>precarious</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>vi. 传道，布道： to deliver a sermon</t>
+          <t>adj. 危险不稳定的： dangerously lacking in security or stability
+adj. 可疑的，不明确的： dependent on uncertain premises</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>a minister who loves to preach  一个爱布道的牧师</t>
+          <t>a precarious livelihood  不稳定的生计
+His entire argument relies on a precarious assumption.   他的整篇论证都建立在一个可疑的假设之上。</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3825,69 +3815,45 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>precarious</t>
+          <t>precedent</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
-        <is>
-          <t>adj. 危险不稳定的： dangerously lacking in security or stability
-adj. 可疑的，不明确的： dependent on uncertain premises</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>a precarious livelihood  不稳定的生计
-His entire argument relies on a precarious assumption.   他的整篇论证都建立在一个可疑的假设之上。</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>precedent</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
         <is>
           <t>n. 先例，前例： an earlier occurrence of something similar
 adj. 先前的： prior in time, order, arrangement, or significance</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>There has not been any precedent so far.   到目前为止还没有先例。
 a landmark decision that set a legalprecedent  在法律上首开先河的重大决议
 Her violent behaviors may be explained by some precedent events in her troubled life.   她 的 暴 力 行 径 或许可以由她之前苦难生活中遭遇到的一些事件来解释。</t>
         </is>
       </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>precipice</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>n. 悬崖峭壁： a very steep or overhanging place</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>a precipice too steep to climb  过于陡峭而无法攀爬的悬崖</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>precipice</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>n. 悬崖峭壁： a very steep or overhanging place</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>a precipice too steep to climb  过于陡峭而无法攀爬的悬崖</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_4.xlsx
+++ b/result/生词本导入模版_4.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,67 +434,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>palter</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>vi. 欺骗： to act insincerely or deceitfully</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>unwilling to palter over the price of the house  拒绝对房子漫天要价</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>palter</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vi. 欺骗： to act insincerely or deceitfully</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>unwilling to palter over the price of the house  拒绝对房子漫天要价</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>paltry</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>adj. 无价值的；微不足道的： lacking in importance or worth
 adj. 让人厌恶，让人鄙视的： arousing or deserving of one's loathing and disgust</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>used a paltry , underhanded scheme to get him fired  用一个微小卑鄙的手段炒了他鱿鱼
 a paltry, underhanded scheme to get someone fired  一个卑鄙的炒掉某人的计谋</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>pan</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>v./n. 严厉批评： a harsh criticism</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>almost all the movie critics have panned this latest sequel in a tired series  几乎所有的影评家都批评这部最新续集，认为是狗尾续貂</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -492,17 +504,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>panache</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. 炫耀： dash or flamboyance in style and action</t>
+          <t>v./n. 严厉批评： a harsh criticism</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The BBC Symphony Orchestra played with great panache.   BBC  交响乐队</t>
+          <t>almost all the movie critics have panned this latest sequel in a tired series  几乎所有的影评家都批评这部最新续集，认为是狗尾续貂</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -514,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pandemic</t>
+          <t>panache</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 大范围流行的： widespread; general</t>
+          <t>n. 炫耀： dash or flamboyance in style and action</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pandemic malaria  大规模的疟疾</t>
+          <t>The BBC Symphony Orchestra played with great panache.   BBC  交响乐队</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -536,17 +548,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pandemonium</t>
+          <t>pandemic</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. 喧嚣，骚动： wild uproar or noise</t>
+          <t>adj. 大范围流行的： widespread; general</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Christmas morning at our house is always marked by pandemonium  圣诞节的早上总是免不了一番吵吵闹闹</t>
+          <t>pandemic malaria  大规模的疟疾</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -558,17 +570,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>panegyric</t>
+          <t>pandemonium</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 赞颂之词： a eulogistic oration or writing</t>
+          <t>n. 喧嚣，骚动： wild uproar or noise</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wrote a panegyric on the centennial of the Nobel laureate's birth  为诺贝尔获得者百年诞辰纪念日写了一篇溢美之词</t>
+          <t>Christmas morning at our house is always marked by pandemonium  圣诞节的早上总是免不了一番吵吵闹闹</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -580,17 +592,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>panoramic</t>
+          <t>panegyric</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adj. 全景的： of an unobstructed or complete view of an area in every direction</t>
+          <t>n. 赞颂之词： a eulogistic oration or writing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a panorama of American history  美国历史总览</t>
+          <t>wrote a panegyric on the centennial of the Nobel laureate's birth  为诺贝尔获得者百年诞辰纪念日写了一篇溢美之词</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -602,17 +614,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>parable</t>
+          <t>panoramic</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>n. 寓言： a story intended to teach a basic truth or moral about life</t>
+          <t>adj. 全景的： of an unobstructed or complete view of an area in every direction</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>the parable in which the repentant sinner is compared to the returning prodigal son  这 个 寓 言 故 事 将不愿悔过的罪人和回头的浪子进行了比较</t>
+          <t>a panorama of American history  美国历史总览</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -624,17 +636,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>paradigm</t>
+          <t>parable</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n. 典范，模范： one that serves as a pattern or model</t>
+          <t>n. 寓言： a story intended to teach a basic truth or moral about life</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>He was the paradigm of the successful man.   他是成功人士的典范</t>
+          <t>the parable in which the repentant sinner is compared to the returning prodigal son  这 个 寓 言 故 事 将不愿悔过的罪人和回头的浪子进行了比较</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -646,43 +658,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>paradigm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n. 典范，模范： one that serves as a pattern or model</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>He was the paradigm of the successful man.   他是成功人士的典范</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>paradise</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>n. 天堂，极乐世界： an often imaginary place or state of utter perfection and happiness
 n. 快乐，狂喜： a state of overwhelming usually pleasurable emotion</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>an idealist who trotted the globe looking for paradise  一个奔波于全世界以寻找一片乐土的理想主义者
 that early stage of a romance when lovers are in paradise  爱情初期，当恋人们都处于快乐兴奋的状态时</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>paradox</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>n. 表面矛盾实际可能正确的话，悖论： a statement that is seemingly contradictory or opposed tocommon sense and yet is perhaps true</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>The paradox is that fishermen would catch more fish if they fished less.   存在的一个悖论就是：如果渔民减少捕鱼量的话，他们将会捕到更多的鱼</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -692,43 +704,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>paradox</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n. 表面矛盾实际可能正确的话，悖论： a statement that is seemingly contradictory or opposed tocommon sense and yet is perhaps true</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The paradox is that fishermen would catch more fish if they fished less.   存在的一个悖论就是：如果渔民减少捕鱼量的话，他们将会捕到更多的鱼</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>paragon</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>n. 优秀模范： a model of excellence or perfection of a kind; a peerless example
 vt. 把…比作；显示相似： to compare with; parallel</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>a paragon of good husband  模范好丈夫
 paragon retreat with treachery  把撤退比作是背叛</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>paramount</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>adj. 最重要的： of chief concern or importance</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>The paramount goal is to restore the colonial-era house with complete historical accuracy.   最 重 要 的 任务就是十分精确地依照历史重建殖民时期的建筑</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -738,17 +750,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>paranoid</t>
+          <t>paramount</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 多疑的，对他人极端恐惧和怀疑的： exhibiting or characterized by extreme and irrational fear ordistrust of others</t>
+          <t>adj. 最重要的： of chief concern or importance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a paranoid suspicion that the phone might be bugged  疑神疑鬼地担心电话被窃听了</t>
+          <t>The paramount goal is to restore the colonial-era house with complete historical accuracy.   最 重 要 的 任务就是十分精确地依照历史重建殖民时期的建筑</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -760,17 +772,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>paraphrase</t>
+          <t>paranoid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>v. 转述，意译，改写： to express something (as a text or statement) in different words</t>
+          <t>adj. 多疑的，对他人极端恐惧和怀疑的： exhibiting or characterized by extreme and irrational fear ordistrust of others</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Could you please paraphrase your diagnosis of my health condition, using simpler language? 您 能 否用更通俗的话语转述一下您对我健康状况的诊断呢</t>
+          <t>a paranoid suspicion that the phone might be bugged  疑神疑鬼地担心电话被窃听了</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -782,17 +794,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>parch</t>
+          <t>paraphrase</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vi. 烤干： to make extremely dry, especially by exposure to heat</t>
+          <t>v. 转述，意译，改写： to express something (as a text or statement) in different words</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>parch a surface from exposure to sun  通过太阳照射烤干一个面</t>
+          <t>Could you please paraphrase your diagnosis of my health condition, using simpler language? 您 能 否用更通俗的话语转述一下您对我健康状况的诊断呢</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -804,17 +816,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>parenthesis</t>
+          <t>parch</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>n. 间断： an interruption of continuity; an interval</t>
+          <t>vi. 烤干： to make extremely dry, especially by exposure to heat</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>a parenthesis in an otherwise solid marriage  在本该是完满婚姻中的一个插曲</t>
+          <t>parch a surface from exposure to sun  通过太阳照射烤干一个面</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -826,17 +838,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pariah</t>
+          <t>parenthesis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n. 被排斥或鄙视的人： one that is despised or rejected, outcast</t>
+          <t>n. 间断： an interruption of continuity; an interval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>I felt like a pariah when I wore the wrong outfit to the dinner party.  当我穿着不恰当的礼服赴宴时，我感觉自己被别人狠狠地鄙视了</t>
+          <t>a parenthesis in an otherwise solid marriage  在本该是完满婚姻中的一个插曲</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -848,17 +860,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>parity</t>
+          <t>pariah</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n. 相称，同等，平等： the quality or state of being equal or equivalent</t>
+          <t>n. 被排斥或鄙视的人： one that is despised or rejected, outcast</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>to achieve parity with our commercial competitors  取得与我们的商业竞争对手同等的地位</t>
+          <t>I felt like a pariah when I wore the wrong outfit to the dinner party.  当我穿着不恰当的礼服赴宴时，我感觉自己被别人狠狠地鄙视了</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -870,15 +882,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>parody</t>
+          <t>parity</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>n. （以嘲笑原作作者的）模仿作品： a literary or musical work in which the style of an author or workis closely imitated for comic effect or in ridicule</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>n. 相称，同等，平等： the quality or state of being equal or equivalent</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>to achieve parity with our commercial competitors  取得与我们的商业竞争对手同等的地位</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -888,43 +904,39 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>parody</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n. （以嘲笑原作作者的）模仿作品： a literary or musical work in which the style of an author or workis closely imitated for comic effect or in ridicule</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>paroxysm</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>n. （感情、动作的）突发：a sudden outburst of emotion or action
 n. （政治、社会领域的）大动荡：a violent disturbance (as of the political or social order)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>a paroxysm of coughing  突然一阵咳嗽
 Darwin's introduction of the theory of evolution created paroxysms in both religion and science that are stillbeing felt today.   达尔文提出的进化论给宗教界和科学界都带来了巨大的冲击，时至今日我们仍然可以感觉到</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>parrot</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>vt. （机械地）模仿，复制： to repeat or imitate, especially without understanding</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>parrot others blindly  盲目地人云亦云</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -934,17 +946,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>parry</t>
+          <t>parrot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vt. 躲避（问题）： to evade especially by an adroit answer</t>
+          <t>vt. （机械地）模仿，复制： to repeat or imitate, especially without understanding</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>He parried the embarrassing question with a clever reply.   他以巧妙的回答躲避了这个令人尴尬的问题</t>
+          <t>parrot others blindly  盲目地人云亦云</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -956,17 +968,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>parsimonious</t>
+          <t>parry</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>n. 过度节俭的，吝啬的： frugal to the point of stinginess</t>
+          <t>vt. 躲避（问题）： to evade especially by an adroit answer</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>the stereotype of the dour and parsimonious Scotsman  严肃而吝啬的苏格兰人的典型代表</t>
+          <t>He parried the embarrassing question with a clever reply.   他以巧妙的回答躲避了这个令人尴尬的问题</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -978,17 +990,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>parsimonious</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>adj. 偏袒的，偏爱的： inclined to favor one party more than the other: biased</t>
+          <t>n. 过度节俭的，吝啬的： frugal to the point of stinginess</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>He is partial to Maverick.   他偏爱小牛队</t>
+          <t>the stereotype of the dour and parsimonious Scotsman  严肃而吝啬的苏格兰人的典型代表</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1000,17 +1012,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>particularize</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vt. 详述： to go into or give details or particulars</t>
+          <t>adj. 偏袒的，偏爱的： inclined to favor one party more than the other: biased</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>particularize the rules you must observe  详述了你需要遵守的规定</t>
+          <t>He is partial to Maverick.   他偏爱小牛队</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1022,69 +1034,69 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>particularize</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>vt. 详述： to go into or give details or particulars</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>particularize the rules you must observe  详述了你需要遵守的规定</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>partisan</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>n. 跟随者，信徒： one who follows the opinions or teachings of another
 n. （狂热、坚定的）拥护者，支持者： one who is intensely or excessively devoted to a cause
 adj. 偏袒的： inclined to favor one side over another</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Partisans of the charismatic leader refuse to tolerate any criticism of him at all.  跟 随 者 们不 允 许任 何有关他们富有魅力的领导的负面言论
 a partisan of the revolution who was even willing to give her life for it  一个愿意为了革命献出自己生命的坚定拥护者
 a shamelessly partisan news report  一篇无耻的、有倾向性的新闻报道</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>pastiche</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>n. （带嘲讽的）模仿： a literary, artistic, musical, or architectural work that imitates the style of previouswork, often with satirical intent
 n. 大杂烩： a pasticcio of incongruous parts; a hodgepodge</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>a pastiche of Botticelli's Birth of Venus  波提且利画作《维纳斯的诞生》的仿品
 a pastiche of dishes from many countries  来自众多国家的饮食杂烩</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>partition</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>n. 分割，划分： the act or process of dividing something into parts</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>the partition of Czechoslovakia into the Czech Republic and Slovakia  捷克斯洛伐克被分裂成捷克共和国和斯洛伐克</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1094,17 +1106,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>patent</t>
+          <t>partition</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>adj. 显而易见的，明显的： readily visible or intelligible: obvious</t>
+          <t>n. 分割，划分： the act or process of dividing something into parts</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unfortunately, the patent flaw of the proposal did not deter the city council from putting it up for a vote.  </t>
+          <t>the partition of Czechoslovakia into the Czech Republic and Slovakia  捷克斯洛伐克被分裂成捷克共和国和斯洛伐克</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1116,17 +1128,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pathological</t>
+          <t>patent</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>adj. 不正常的，病态的： being such to a degree that is extreme, excessive, or markedly abnormal</t>
+          <t>adj. 显而易见的，明显的： readily visible or intelligible: obvious</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>She has a pathological fear of snakes.  她对蛇有一种病态的恐惧</t>
+          <t xml:space="preserve">Unfortunately, the patent flaw of the proposal did not deter the city council from putting it up for a vote.  </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1138,106 +1150,114 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>pathological</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>adj. 不正常的，病态的： being such to a degree that is extreme, excessive, or markedly abnormal</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>She has a pathological fear of snakes.  她对蛇有一种病态的恐惧</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>patina</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>n. 外表： a superficial covering or exterior
 n. （由内而外散发的）氛围，气场： an appearance or aura that is derived from association, habit, orestablished character</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>a superficial patina of knowledge  表面肤浅的知识
 Although the winery is brand-new, it has been constructed and decorated to give it a patina of old-worldquaintness.   尽管酿酒厂是全新建造的，但它的构造和装饰都刻意营造出一种古色古香的奇异氛围</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>patrician</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>n. 贵族，名门望族： a man or woman of high birth or social position
 adj. 贵族的，地位高的： of high birth, rank, or station</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>the rank of a patrician  贵族等级
 came from a patrician family  出身贵族世家</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>patriot</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>n. 爱国者： one who loves his or her country and supports its authority and interests</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>The USA PATRIOT Act has generated a great deal of controversy since its enactment.   自实施之日起，美国的《爱国者法案》就产生了大量的争议
 a fanatical patriot  狂热的爱国者</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>patronize</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>vt. 赞助： provide aid or support for
 v. 以高人一等的态度对待：to adopt an air of condescension toward : treat haughtily or coolly</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>a company that loyally patronizes the arts  一个一直以来坚持赞助艺术界的公司
 a director with an unpleasant habit of patronizing even his most gifted actors  一个有着令人讨厌习惯的导演，他即便是对手下最有才华的演员也傲慢地对待</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>paucity</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1247,19 +1267,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>paunchy</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>adj. 大腹便便，大肚子的： having a potbelly</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>a paunchy middle-aged man  一个大腹便便的中年男子</t>
-        </is>
-      </c>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1269,43 +1281,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>paunchy</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>adj. 大腹便便，大肚子的： having a potbelly</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>a paunchy middle-aged man  一个大腹便便的中年男子</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>peck</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>n. 大量： a considerable amount
 v. （不情愿地）小口咬： to eat reluctantly and in small bites</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Now you're in a peck of trouble.   现在你有一堆麻烦了
 Fashion models never really eat: they just peck at small meals in expensive restaurants.  时 装 模 特 们几乎不吃东西——他们只是随便咬一口昂贵餐厅里的食物</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>pedagogue</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>n. 教育者，老师： a person whose occupation is to give formal instruction in a school</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>a boring pedagogue who is called “PPT reader”一个被戏称为“幻灯片朗读机”的无聊老师</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1315,17 +1327,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pedant</t>
+          <t>pedagogue</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>n. 书呆子，墨守成规之人： one who pays undue attention to book learning and formal rules</t>
+          <t>n. 教育者，老师： a person whose occupation is to give formal instruction in a school</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>He is a perfect type of pedant.   他是个十足的书呆子</t>
+          <t>a boring pedagogue who is called “PPT reader”一个被戏称为“幻灯片朗读机”的无聊老师</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1337,17 +1349,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>predestine</t>
+          <t>pedant</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>vt. 预先注定： to determine the fate of in advance</t>
+          <t>n. 书呆子，墨守成规之人： one who pays undue attention to book learning and formal rules</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Our victory in the tournament was seemingly predestined.   我们在锦标赛中的胜利似乎是注定好了的</t>
+          <t>He is a perfect type of pedant.   他是个十足的书呆子</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1359,90 +1371,90 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>predestine</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>vt. 预先注定： to determine the fate of in advance</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Our victory in the tournament was seemingly predestined.   我们在锦标赛中的胜利似乎是注定好了的</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>pedestrian</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>n. 行人： a person traveling on foot
 adj. 平庸无奇的，令人厌倦的： causing weariness, restlessness, or lack of interest</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a lane reserved for pedestrians  行人专用道</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>peep</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>n. 一瞥： a brief and sometimes furtive look
 n. 轻声： a slight sound or utterance</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>take a peep at the new neighbors  偷偷瞄了我们的新邻居一眼
 I haven't heard a peep out of the children for an hour.  我已经一个小时没听到孩子们的声音了</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>peer</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>n. 同等地位的人，同辈： a person who has equal standing with others
 v. 好奇地凝视： to look narrowly or curiously;</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>stand out among peers  在同辈当中很出众
 peer at the variety of marine life in the aquarium's huge tank  好奇地注视着巨大水族箱中丰富多样的海洋生物</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>peeve</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>vt. 打扰，惹恼： to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>be constantly peeved by his affected flattery  总是被他做作的谄媚所惹恼</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1452,17 +1464,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>pejorative</t>
+          <t>peeve</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 轻蔑的，贬低的： disparaging; belittling</t>
+          <t>vt. 打扰，惹恼： to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>I agree that I am ambitious, and I don't see it as a pejorative term.  我承认我“雄心勃勃”，但我并不认为</t>
+          <t>be constantly peeved by his affected flattery  总是被他做作的谄媚所惹恼</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1474,67 +1486,67 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>pejorative</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>adj. 轻蔑的，贬低的： disparaging; belittling</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>I agree that I am ambitious, and I don't see it as a pejorative term.  我承认我“雄心勃勃”，但我并不认为</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>pellucid</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>adj. 透明的： admitting the passage of light
 adj. 清晰明确的，易懂的： transparently clear in style or meaning</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>pellucid spring water  清澈透明的泉水
 Her poetry has a pellucid simplicity that betrays none of the sweat that went into writing it.   她 的 诗 歌 风格十分清新简约，丝毫没有体现出她为此付出的汗水</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>pen</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>n. 监狱： a place of confinement for persons held in lawful custody
 v. 关押，监禁： to close or shut in by or as if by barriers</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>spent six years in a federal pen  在联邦监狱中度过了六年
 remember to pen up the dogs when visitors come over  客人来的时候别忘了把狗给关起来</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>penalty</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>n. （对罪行的）处罚： a punishment established by law or authority for a crime or offense</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>The maximum penalty is 7 years’ imprisonment.  最为严厉的惩罚是七年的有期徒刑</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1544,17 +1556,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>penchant</t>
+          <t>penalty</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>n. 强烈嗜好，迷恋： a strong and continued inclination</t>
+          <t>n. （对罪行的）处罚： a punishment established by law or authority for a crime or offense</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>a penchant for Champaign  非常喜爱香槟</t>
+          <t>The maximum penalty is 7 years’ imprisonment.  最为严厉的惩罚是七年的有期徒刑</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1566,17 +1578,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>penitent</t>
+          <t>penchant</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 悔过的： feeling or expressing humble or regretful pain or sorrow for sins or offenses</t>
+          <t>n. 强烈嗜好，迷恋： a strong and continued inclination</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>a penitentbusinessman who had come to ask for forgiveness  一个来寻求宽恕的决定悔过自新的商人</t>
+          <t>a penchant for Champaign  非常喜爱香槟</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1588,17 +1600,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pensive</t>
+          <t>penitent</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 沉思的，（尤指）哀思的： given to or marked by long, quiet and often musingly sadthinking</t>
+          <t>adj. 悔过的： feeling or expressing humble or regretful pain or sorrow for sins or offenses</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rainy days often put her in a pensive mood.   雨天总是让她陷入深深的思考之中</t>
+          <t>a penitentbusinessman who had come to ask for forgiveness  一个来寻求宽恕的决定悔过自新的商人</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1610,43 +1622,43 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>pensive</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>adj. 沉思的，（尤指）哀思的： given to or marked by long, quiet and often musingly sadthinking</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rainy days often put her in a pensive mood.   雨天总是让她陷入深深的思考之中</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>penury</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>n. 贫穷： extreme dearth; barrenness or insufficiency
 n. 吝啬，节俭： extreme and often niggardly frugality</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Some have pessimistically regarded the higher education in China as an invisible and irresistible path topenury.   有人悲观地把中国的高等教育看作是一条通往贫穷的通道——无形但不可抗拒
 They bitterly complained about their father's penury.  他们哀怨地抱怨父亲的节俭</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>perambulate</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>v. 徒步穿越，走过： to travel over or through especially on foot for exercise or pleasure</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>We decided to lazily perambulate the entire length of the esplanade and enjoy the fresh air.   我 们 决 定 悠哉地徒步走过滨海大道，享受清新的空气</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1656,17 +1668,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>perceptible</t>
+          <t>perambulate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adj. 可察觉的： capable of being perceived especially by the senses</t>
+          <t>v. 徒步穿越，走过： to travel over or through especially on foot for exercise or pleasure</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>You should be able to note a perceptible temperature change when you add the second reagents.   当你加入第二种试剂的时候，你应该能够察觉到明显的温度变化</t>
+          <t>We decided to lazily perambulate the entire length of the esplanade and enjoy the fresh air.   我 们 决 定 悠哉地徒步走过滨海大道，享受清新的空气</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1678,43 +1690,43 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>perceptible</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>adj. 可察觉的： capable of being perceived especially by the senses</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>You should be able to note a perceptible temperature change when you add the second reagents.   当你加入第二种试剂的时候，你应该能够察觉到明显的温度变化</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>peremptory</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>adj. 不容反抗的： not allowing contradiction or refusal; imperative
 adj. 爱发号施令的： fond of ordering people around</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>a peremptory order from the general  将军下达的不容反抗的命令
 The peremptory secretary began telling the crowd of reporters and photographers exactly where they hadto stand.   爱发号施令的秘书开始部署记者和摄影师们应该站在哪里了</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>perfervid</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>adj. 非常热情的： marked by overwrought or exaggerated emotion: excessively fervent</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>perfervid love letter  热情洋溢的情书</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1724,17 +1736,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>perfidy</t>
+          <t>perfervid</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>n. 不忠，背信弃义： an act or an instance of disloyalty</t>
+          <t>adj. 非常热情的： marked by overwrought or exaggerated emotion: excessively fervent</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>As loyalty unites lovers, so perfidy estranges friends.   忠诚是爱情的纽带，欺诈是友谊的敌人</t>
+          <t>perfervid love letter  热情洋溢的情书</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1746,17 +1758,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>perforate</t>
+          <t>perfidy</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>v. 打孔，穿透： to make a hole through</t>
+          <t>n. 不忠，背信弃义： an act or an instance of disloyalty</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>to perforate with a pin  用针穿孔</t>
+          <t>As loyalty unites lovers, so perfidy estranges friends.   忠诚是爱情的纽带，欺诈是友谊的敌人</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1768,39 +1780,43 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>perforate</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>v. 打孔，穿透： to make a hole through</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>to perforate with a pin  用针穿孔</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>perfunctory</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>adj. 例行公事的，敷衍的： characterized by routine or superficiality and often done merely as a duty
 adj. 不感兴趣的： lacking in interest or enthusiasm</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>gave his usual perfunctory nod  例行公事地随便点了个头
 She gave the list only a perfunctory glance.  她无所谓地随便瞅了名单一眼</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>perimeter</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>n. 边界，界限： the line or relatively narrow space that marks the outer limit of something</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1810,33 +1826,33 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>perimeter</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>n. 边界，界限： the line or relatively narrow space that marks the outer limit of something</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>periodical</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>n. 期刊： a publication that appears at regular intervals
 adj. 周期性的，有固定间隔的： occurring or recurring at regular intervals</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>peripatetic</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>adj. 巡游的，四处游历的： walking about or from place to place</t>
-        </is>
-      </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
@@ -1847,66 +1863,62 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>peripatetic</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>adj. 巡游的，四处游历的： walking about or from place to place</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>peripheral</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>adj. 外围的： related to, located in, or constituting an outer boundary or periphery
 adj. 辅助性的： available to supply something extra when needed</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>development in the peripheral areas of megacities  大城市边缘地区的发展
 The IT consultant suggested that we update the drivers for all of the computer's peripheral devices.   IT  咨询师建议我们更新电脑所有外围辅助设备的驱动程序</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>perish</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>vi. 死亡，消亡： to become destroyed or ruined: cease to exist</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>thrive in calamity and perish in soft living  生于忧患，死于安乐
 adapt or perish  适应或是消亡</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>permanent</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. 永恒的： continuing or enduring without fundamental or marked change; lasting forever</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A temporary compromise has been accepted until a more permanent solution can be agreed upon.   在更为持久的决案被通过之前，一个暂时性的妥协方案被接受了</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1916,11 +1928,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>permeable</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+          <t>permanent</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>adj. 永恒的： continuing or enduring without fundamental or marked change; lasting forever</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A temporary compromise has been accepted until a more permanent solution can be agreed upon.   在更为持久的决案被通过之前，一个暂时性的妥协方案被接受了</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1930,19 +1950,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>pernicious</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>adj. 有害的： highly injurious or destructive</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Business may be troublesome but idleness is pernicious.  工作烦人，懒散害人</t>
-        </is>
-      </c>
+          <t>permeable</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1952,43 +1964,43 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>adj. 有害的： highly injurious or destructive</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Business may be troublesome but idleness is pernicious.  工作烦人，懒散害人</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>peroration</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>n. （演讲的）结束语： the concluding part of a discourse and especially an oration
 n.（正式的）演讲，致辞： a usually formal discourse delivered to an audience</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>He summarized his main points in his peroration.   他在结束语中总结了自己的主要观点
 a peroration celebrating the nation's long tradition of religious tolerance and pluralism  为 庆 祝 该 国 长 期以来对于宗教的容忍态度和宗教多元化所做的一个演讲</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>perpetual</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>adj. 永恒的，不断的： continuing forever：everlasting</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>perpetual motion machine  永动机</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1998,17 +2010,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>persecute</t>
+          <t>perpetual</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vt. 迫害，折磨： to cause persistent suffering to</t>
+          <t>adj. 永恒的，不断的： continuing forever：everlasting</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>people who were persecuted simply for practicing their religious faith  因为实践宗教信仰而惨遭迫害的人</t>
+          <t>perpetual motion machine  永动机</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2020,17 +2032,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>persecute</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vi. 坚持不懈，不屈不挠： to persist in or remain constant to a purpose, idea, or task in the face ofobstacles or discouragement</t>
+          <t>vt. 迫害，折磨： to cause persistent suffering to</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Although he was frustrated by the lack of financial resources and support, hepersevered in his scientificresearch.  尽管因为资金不足而受阻，但他仍坚持进行科学研究</t>
+          <t>people who were persecuted simply for practicing their religious faith  因为实践宗教信仰而惨遭迫害的人</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2042,17 +2054,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>persiflage</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>n. 打趣： good-natured teasing or exchanging of clever remarks</t>
+          <t>vi. 坚持不懈，不屈不挠： to persist in or remain constant to a purpose, idea, or task in the face ofobstacles or discouragement</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Their tongue-in-cheek persiflage is sometimes mistaken for an exchange of insults by people who don'tknow them.   他们半开玩笑的打趣有时候被不认识他们的人误认为是在互相对骂</t>
+          <t>Although he was frustrated by the lack of financial resources and support, hepersevered in his scientificresearch.  尽管因为资金不足而受阻，但他仍坚持进行科学研究</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2064,15 +2076,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>persistence</t>
+          <t>persiflage</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>n. 坚持，持续： uninterrupted or lasting existence</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>n. 打趣： good-natured teasing or exchanging of clever remarks</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Their tongue-in-cheek persiflage is sometimes mistaken for an exchange of insults by people who don'tknow them.   他们半开玩笑的打趣有时候被不认识他们的人误认为是在互相对骂</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2082,19 +2098,15 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>personable</t>
+          <t>persistence</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj. 风度翩翩的，吸引人的： pleasing in personality or appearance; attractive</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>apparently be attracted by a personable young man  明显被一位风度翩翩的少年迷住了</t>
-        </is>
-      </c>
+          <t>n. 坚持，持续： uninterrupted or lasting existence</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2104,17 +2116,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>perspicacious</t>
+          <t>personable</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adj. 极敏锐的，有洞察力的： having or showing penetrating mental discernment; clear-sighted</t>
+          <t>adj. 风度翩翩的，吸引人的： pleasing in personality or appearance; attractive</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>an impartial and perspicacious judge  一个明镜高悬的法官</t>
+          <t>apparently be attracted by a personable young man  明显被一位风度翩翩的少年迷住了</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2126,17 +2138,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>perspicuity</t>
+          <t>perspicacious</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>n. 清晰明了： the quality of being perspicuous; clearness and lucidity</t>
+          <t>adj. 极敏锐的，有洞察力的： having or showing penetrating mental discernment; clear-sighted</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>The key of modern enterprise system is the prespicuity of property right.   现代企业制度的核心是产权的明晰</t>
+          <t>an impartial and perspicacious judge  一个明镜高悬的法官</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2148,17 +2160,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>pertain</t>
+          <t>perspicuity</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>v. 有关联： to have a relation or connection; relate</t>
+          <t>n. 清晰明了： the quality of being perspicuous; clearness and lucidity</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>new evidence that pertains to the accident  与事故相关的新证据</t>
+          <t>The key of modern enterprise system is the prespicuity of property right.   现代企业制度的核心是产权的明晰</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2170,17 +2182,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>pertinacious</t>
+          <t>pertain</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 顽固的，固执地坚持的： sticking to an opinion, purpose, or course of action in spite of reason,arguments, or persuasion</t>
+          <t>v. 有关联： to have a relation or connection; relate</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The pertinacious boy won’t stop crying unless his desire is satisfied.   这个固执的男孩在愿望没有满足的情况下是不会停止哭泣的</t>
+          <t>new evidence that pertains to the accident  与事故相关的新证据</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2192,17 +2204,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>pertinent</t>
+          <t>pertinacious</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 相关的，恰当的： having a clear decisive relevance to the matter in hand</t>
+          <t>adj. 顽固的，固执地坚持的： sticking to an opinion, purpose, or course of action in spite of reason,arguments, or persuasion</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>He impressed the jury with his concise, pertinent answers to the attorney's questions.   他 对 律 师 提 出 的问题的简洁而恰当的回答给陪审团留下了深刻的印象</t>
+          <t>The pertinacious boy won’t stop crying unless his desire is satisfied.   这个固执的男孩在愿望没有满足的情况下是不会停止哭泣的</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2214,17 +2226,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>perturb</t>
+          <t>pertinent</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 扰乱，使烦躁不安： to trouble the mind of; to make uneasy</t>
+          <t>adj. 相关的，恰当的： having a clear decisive relevance to the matter in hand</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>perturbed me enough to keep me awake that night  让我烦躁到当晚失眠</t>
+          <t>He impressed the jury with his concise, pertinent answers to the attorney's questions.   他 对 律 师 提 出 的问题的简洁而恰当的回答给陪审团留下了深刻的印象</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2236,17 +2248,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>peruse</t>
+          <t>perturb</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>v. 细读： to read or examine, typically with great care</t>
+          <t>vt. 扰乱，使烦躁不安： to trouble the mind of; to make uneasy</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>perused the manuscript to check for grammatical errors  细读手稿以检查语法错误</t>
+          <t>perturbed me enough to keep me awake that night  让我烦躁到当晚失眠</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2258,42 +2270,42 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>peruse</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>v. 细读： to read or examine, typically with great care</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>perused the manuscript to check for grammatical errors  细读手稿以检查语法错误</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>pervade</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>vt. 弥漫，充满： to be present throughout; permeate</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>The mixed smell of sawdust and glue pervaded the whole factory.  锯 末 与 胶 水 的 味 道 弥 漫 了 整 个 工厂
 the corruption that pervades every stratum of society  充斥在社会每个阶层中的腐败</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>pessimistic</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>adj. 悲观的： tending to stress the negative or unfavorable or to take the gloomiest possible view</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>With that pessimistic attitude, it's no wonder you're depressed.   你的人生观如此悲观，难怪你会感到压抑</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2303,43 +2315,43 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>pessimistic</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>adj. 悲观的： tending to stress the negative or unfavorable or to take the gloomiest possible view</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>With that pessimistic attitude, it's no wonder you're depressed.   你的人生观如此悲观，难怪你会感到压抑</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>petition</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>n. 请愿，正式的申请： a solemn supplication or request to a superior authority; an entreaty
 v. （尤指正式地）请求： to make a request, especially a formal written one</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>a petition for divorce  离婚申请书
 She is petitioning to regain custody of the child.  为了重新获得孩子的监护权，她提出了正式申请</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>petrify</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>v. 使僵化，失去活力： to cause to become stiff or stone-like; deaden</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Pressure from family has petrified his once innovative mind.   家庭的压力使他的头脑失去了往日的创造力</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2349,17 +2361,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>petty</t>
+          <t>petrify</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 细微的，不重要的： of small importance; trivial</t>
+          <t>v. 使僵化，失去活力： to cause to become stiff or stone-like; deaden</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>play petty tricks  耍小聪明</t>
+          <t>Pressure from family has petrified his once innovative mind.   家庭的压力使他的头脑失去了往日的创造力</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2371,17 +2383,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>petty</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 不寻常的，非凡的： being out of the ordinary;extraordinary; outstanding</t>
+          <t>adj. 细微的，不重要的： of small importance; trivial</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>the phenomenal growth that the suburb has experienced over the last decade  过去几十年间郊区所经历的令人称奇的快速发展</t>
+          <t>play petty tricks  耍小聪明</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2393,17 +2405,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>philanthropic</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 博爱的，为他人着想的： having or showing a concern for the welfare of others</t>
+          <t>adj. 不寻常的，非凡的： being out of the ordinary;extraordinary; outstanding</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>the philanthropic aims of the organization  这个机构的博爱、利他的目标</t>
+          <t>the phenomenal growth that the suburb has experienced over the last decade  过去几十年间郊区所经历的令人称奇的快速发展</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2415,17 +2427,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>philistine</t>
+          <t>philanthropic</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>n. 市侩（注重物质而鄙视智慧或艺术的人）： a person who is guided by materialism and is usuallydisdainful of intellectual or artistic values</t>
+          <t>adj. 博爱的，为他人着想的： having or showing a concern for the welfare of others</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>The philistine's critics sometime limit artists’ imagine.   市侩之人的批评有时会限制艺术家的想象力</t>
+          <t>the philanthropic aims of the organization  这个机构的博爱、利他的目标</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2437,17 +2449,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>phlegmatic</t>
+          <t>philistine</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 冷静的，无感情的，淡漠的： having or suggesting a calm, sluggish temperament; unemotional</t>
+          <t>n. 市侩（注重物质而鄙视智慧或艺术的人）： a person who is guided by materialism and is usuallydisdainful of intellectual or artistic values</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>a strangely phlegmatic response to what should have been happy news  对本该是一个让人开心的新闻的冷漠回复</t>
+          <t>The philistine's critics sometime limit artists’ imagine.   市侩之人的批评有时会限制艺术家的想象力</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2459,17 +2471,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>piddling</t>
+          <t>phlegmatic</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>adj. 微不足道的： so trifling or trivial as to be beneath one's consideration</t>
+          <t>adj. 冷静的，无感情的，淡漠的： having or suggesting a calm, sluggish temperament; unemotional</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>raised a piddling objection to the plan  对计划提出了一个微不足道的反对</t>
+          <t>a strangely phlegmatic response to what should have been happy news  对本该是一个让人开心的新闻的冷漠回复</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2481,67 +2493,67 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>piddling</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>adj. 微不足道的： so trifling or trivial as to be beneath one's consideration</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>raised a piddling objection to the plan  对计划提出了一个微不足道的反对</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>piebald</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 杂色的： of different colors
 adj. 混合的，杂糅而成的： consisting of many things of different sorts</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>a piebald horse  一匹杂色马
 his piebald ethnic background  他身为混血儿的背景</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>pigment</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>n. 颜料： a substance that imparts black or white or a color to other materials
 vt. 给…上颜色： to color with or as if with pigment</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>natural red pigment  天然红色染料
 pigmented silk  染过色的丝绸</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>pilfer</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>v. 偷窃： to steal stealthily in small amounts</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>pilfer the commercial document  偷窃商业文件</t>
-        </is>
-      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2551,116 +2563,116 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>pilfer</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>v. 偷窃： to steal stealthily in small amounts</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>pilfer the commercial document  偷窃商业文件</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>pillar</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>n. 柱子： a firm upright support for a superstructure
 n. （物质、精神等方面的）支柱： something or someone to which one looks for support</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>stone pillars that supported the hall  支撑大厅的石柱
 My father has been my pillar throughout this crisis.   整场危机之中我父亲都是我的支柱。</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>pillory</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>vt. 被示众嘲弄： to expose to public contempt, ridicule, or scorn</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>The candidate mercilessly pilloried his opponent.   候 选 人 在 大 众 面 前 无 情 地 羞 辱 他 的 对 手 。
 Heresigned after being pilloried by the press.  在遭到媒体嘲弄之后他愤然辞职。</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>pilot</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>n. 领航员，飞行员： one employed to steer a ship
 adj. 初步的，试验性的： serving as a tentative model for future experiment or development
 vt. 带领通过： lead or conduct over a usually difficult course</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>a jet pilot  喷气式飞机飞行员
 They carried out a pilot study before the larger, more expensive project was started  在更大规模、更为昂贵的项目开始之前，他们进行了初步研究。
 The lobbyists piloted the bill through the Senate.   游说集团使法案得到参议院的批准。</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>pine</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>vi. 渴望，奢望： to yearn intensely and persistently especially for something unattainable
 vi. 因渴望而憔悴： to lose vigor, health, or flesh (as through grief)</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>pine for a lost love  渴望那段逝去的爱情
 Separated by their families, the lovers pined away.   这对恋人因为被家人拆散而日益憔悴。</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>pinnacle</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>n. 顶峰： the highest point of development or achievement</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>a singer who has reached the pinnacle of career  已到达事业巅峰的歌手</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2670,116 +2682,116 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>pinnacle</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>n. 顶峰： the highest point of development or achievement</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>a singer who has reached the pinnacle of career  已到达事业巅峰的歌手</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>pinpoint</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>adj. 非常精确的： located, fixed, or directed with extreme precision
 v. 精确定位或确认： to locate, fix, determine, or identify with precision</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>The commander demanded the pinpoint location of artillery fire.   指挥官需要火炮攻击的精确位置。
 pinpoint the target by tracking calls from his cellphone  通过跟踪手机信号精确定位了目标
 pinpoint thecause of failure  准确找出失败的原因</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>piquant</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>adj. 辛辣开胃的： pleasantly pungent or tart in taste
 adj. 令人振奋的： appealingly provocative</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>a piquant sauce  开胃的酱汁
 a piquant glance  充满挑逗的一瞥</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>pique</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>vt. 使愤怒： to arouse anger or resentment in
 vt. 激起，刺激： to excite or arouse especially by a provocation, challenge, or rebuff</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>She was greatly piqued when they refused her invitation.  他们拒绝她的邀请让她很生气。
 radical remarks that pique their curiosity  引起他们兴趣的激进评论</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>pirate</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>vt. 盗版，盗用： to take or make use of under a guise of authority but without actual right
 n. 海盗： a robber on the high seas</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>a pirated version of the software  盗版软件
 little boys dreaming of sailing as pirates  梦想成为海盗的小男孩</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>pithy</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>adj. 精练的，简洁的： precisely meaningful; forceful and brief</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>The professor gave a pithy introduction to this course.   教授就这门课程做了简短的介绍。</t>
-        </is>
-      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2789,17 +2801,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>pitiless</t>
+          <t>pithy</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 没有同情心的： devoid of or unmoved by pity</t>
+          <t>adj. 精练的，简洁的： precisely meaningful; forceful and brief</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>a pitiless humiliation  毫不留情的羞辱</t>
+          <t>The professor gave a pithy introduction to this course.   教授就这门课程做了简短的介绍。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2811,17 +2823,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>pittance</t>
+          <t>pitiless</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>n. 少量津贴：a small portion, amount, or allowance</t>
+          <t>adj. 没有同情心的： devoid of or unmoved by pity</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>The internship offers only a pittance for a salary, but it is a great opportunity to gain experience.   实 习 所能挣到的报酬是很少的，但是它提供了获得经验的绝佳机会。</t>
+          <t>a pitiless humiliation  毫不留情的羞辱</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2833,17 +2845,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>placate</t>
+          <t>pittance</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vt. （通过让步以）平息抚慰： to lessen the anger or agitation of</t>
+          <t>n. 少量津贴：a small portion, amount, or allowance</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>The colonists implemented a new policy to placate local opposition  殖民者采取新政策以缓和当地的反抗情绪。</t>
+          <t>The internship offers only a pittance for a salary, but it is a great opportunity to gain experience.   实 习 所能挣到的报酬是很少的，但是它提供了获得经验的绝佳机会。</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2855,17 +2867,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>placebo</t>
+          <t>placate</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n. 安慰性的事物： something of no intrinsic remedial value that is used to appease or reassureanother</t>
+          <t>vt. （通过让步以）平息抚慰： to lessen the anger or agitation of</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Candies are often adopted as the placebo for the dying patients.   糖果通常作为安慰剂给重症患者服用。</t>
+          <t>The colonists implemented a new policy to placate local opposition  殖民者采取新政策以缓和当地的反抗情绪。</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2877,17 +2889,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>plagiarize</t>
+          <t>placebo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>v. 剽窃，抄袭：to steal and pass off (the ideas or words of another) as one's own</t>
+          <t>n. 安慰性的事物： something of no intrinsic remedial value that is used to appease or reassureanother</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>In scientific community, plagiarizing other’s paper is a felony.  在学术界，剽窃他人的论文是一项重罪。</t>
+          <t>Candies are often adopted as the placebo for the dying patients.   糖果通常作为安慰剂给重症患者服用。</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2899,87 +2911,91 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>plagiarize</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>v. 剽窃，抄袭：to steal and pass off (the ideas or words of another) as one's own</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>In scientific community, plagiarizing other’s paper is a felony.  在学术界，剽窃他人的论文是一项重罪。</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>plangent</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>adj. 轰鸣的： having a loud reverberating sound
 adj. 凄凉的，哀伤的： having an expressive and especially plaintive quality</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>The camera man was stunned by the plangent roar of wild animals.   摄影师被野生动物发出的怒号吓得不知所措。
 a plangent song about a long-ago love  一首关于往日爱情的凄凉歌曲</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>plastic</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>adj. 可塑的： susceptible of being modified in form or nature
 adj. 虚假的，做作的： lacking in natural or spontaneous quality</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>the plastic quality of modeling clay  模型泥的可塑性质
 There's usually a plastic cordiality at these corporate events.  通常在公司的活动上都有一种虚假的热情和友好。</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>plateau</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>n. 高原： a usually extensive level land area raised sharply above adjacent land on at least one side
 n. 稳定时期，平台期： a relatively stable level, period, or state</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Qinghai-Tibetan Plateau  青藏高原
 reached a plateau of development  达到了发展的稳定期</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>platitude</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>n. 陈词滥调： a trite or banal remark or statement, especially one expressed as if it were original orsignificant</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2989,19 +3005,15 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>plausible</t>
+          <t>platitude</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 看似有理的： superficially fair, reasonable, or valuable but often specious</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>a plausible argument  看起来头头是道的说理</t>
-        </is>
-      </c>
+          <t>n. 陈词滥调： a trite or banal remark or statement, especially one expressed as if it were original orsignificant</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3011,15 +3023,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>pleat</t>
+          <t>plausible</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>n./vt. 打褶： fold</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>adj. 看似有理的： superficially fair, reasonable, or valuable but often specious</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>a plausible argument  看起来头头是道的说理</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3029,19 +3045,15 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>plentitude</t>
+          <t>pleat</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>n. 大量： an ample amount or quantity; an abundance</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>a plentitude of lumber for the current housing market  充足的家具木材供给</t>
-        </is>
-      </c>
+          <t>n./vt. 打褶： fold</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3051,17 +3063,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>plethora</t>
+          <t>plentitude</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>n. 过量，过剩： excess, superfluity</t>
+          <t>n. 大量： an ample amount or quantity; an abundance</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>a plethora of advice and a paucity of assistance  给出大量建议而鲜有实质性援助</t>
+          <t>a plentitude of lumber for the current housing market  充足的家具木材供给</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3073,43 +3085,43 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>plethora</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>n. 过量，过剩： excess, superfluity</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>a plethora of advice and a paucity of assistance  给出大量建议而鲜有实质性援助</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
           <t>pliable</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>adj. 易弯曲的，柔软的： supple enough to bend freely or repeatedly without breaking
 adj. 易受影响的，温顺的： easily influenced, persuaded, or swayed</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>pliable optical fiber  柔软的光纤
 He took advantage of the pliable mind of youth.  他利用了年轻人容易受他人教唆的特点。</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>pliant</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>adj. 易弯曲的： easily bent or flexed</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>a pliant young tree  易弯曲的小树</t>
-        </is>
-      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3119,17 +3131,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>plight</t>
+          <t>pliant</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>n. 困境： a situation, especially a bad or unfortunate one</t>
+          <t>adj. 易弯曲的： easily bent or flexed</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>He was in a plight, trying to decide whether or not to take the job.  他处在不知道是否应该接受这份工作的困境之中。</t>
+          <t>a pliant young tree  易弯曲的小树</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3141,17 +3153,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>plod</t>
+          <t>plight</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>v. 沉重缓慢地走： to walk heavily or slowly</t>
+          <t>n. 困境： a situation, especially a bad or unfortunate one</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>The soldiers slowly plodded across the marsh.  士兵们慢慢走过沼泽地。</t>
+          <t>He was in a plight, trying to decide whether or not to take the job.  他处在不知道是否应该接受这份工作的困境之中。</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3163,67 +3175,67 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>plod</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>v. 沉重缓慢地走： to walk heavily or slowly</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>The soldiers slowly plodded across the marsh.  士兵们慢慢走过沼泽地。</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>pluck</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>n. 敢于面对困难的勇气： resourceful courage and daring in the face of difficulties
 v. 弹奏（弦乐）： to sound (the strings of an instrument) by pulling and releasing them with the fingersor a plectrum</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>full of pluck  充满了勇气
 pluck the harp  弹奏竖琴</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>plumb</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>vt. 测深度： to measure the depth of (as a body of water) typically with a weighted line
 adj. 垂直的： exactly vertical</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>We will plumb the bay to make sure it was deep enough for the huge vessel.   为了确证水深足够容纳这艘巨轮，我们将会测量海湾的深度。
 questions that plumb the depths of stupidity  测量智商下限的问题</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>plummet</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>v. 突然下降： to decline suddenly and steeply</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Overall GPA plummeted 0.  5 points.   平均学分绩骤降 0.  5。</t>
-        </is>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3233,67 +3245,67 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>plummet</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>v. 突然下降： to decline suddenly and steeply</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Overall GPA plummeted 0.  5 points.   平均学分绩骤降 0.  5。</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>plump</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>adj. 丰满的： well-rounded and full in form
 vi. 鼎力支持，赞口不绝： to give full support or praise</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>In Tang Dynasty, being plump was a sign of ultimate beauty.   在唐代，身材丰满是最美丽的象征。
 We will plump for any candidate who supports stem cell research.  我们会鼎力支持那些拥护干细胞研究的候选人。</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>plunge</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vi. 突然下降： to descend or dip suddenly
 vt. 插入，刺入： to cause to penetrate or enter quickly and forcibly into something</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>stock’s value plunged  股票价值骤然下降
 plunged the dagger into his chest  把匕首刺入他的胸膛</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>polarize</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>vt. 使分开对立，两极分化： to break up into opposing factions or groupings</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>The controversy has polarized voters into pro-abortion and anti-abortion groups.   这个问题使得选民分化成支持堕胎和反对堕胎两个群体。</t>
-        </is>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3303,11 +3315,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>polemic</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
+          <t>polarize</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>vt. 使分开对立，两极分化： to break up into opposing factions or groupings</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>The controversy has polarized voters into pro-abortion and anti-abortion groups.   这个问题使得选民分化成支持堕胎和反对堕胎两个群体。</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3317,91 +3337,83 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>polemic</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>polished</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>adj. 有教养的： showing a high degree of refinement and the assurance that comes from wide socialexperience
 adj. 擦亮的： having a shiny surface or finish</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>He maintained a very polished tone in his correspondences.  他在通信中保持着一种极有教养的口吻。
 She could see her face reflected in the polished hood of the car.   她可以通过引擎盖光亮的表面看到自己的脸。</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>politic</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>adj. 精明能干的： characterized by shrewdness in managing, contriving, or dealing
 adj. 合时宜的，明智的： suitable for bringing about a desired result under the circumstances</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">a politic secretary  能干的秘书
 It probably would not be politic to tell your boss that his latest idea is the worst thing you've ever heard.  </t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>pompous</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>adj. 浮夸的： excessively elevated or ornate
 adj. 傲慢的： having or exhibiting self-importance</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>The candidate was given to windy rhetorical speeches.   听众们听了一场冗长而浮夸的演讲。
 a pompous politician who insisted on boarding the plane first  一个坚持要求优先登机的傲慢政客</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>ponderable</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>adj. 有价值的，值得考虑的： considerable enough to be weighed or assessed</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Climate change has exerted a ponderable influence on world politics.  气候变化对世界政局有着不容忽视的影响。</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3411,43 +3423,43 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>ponderable</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>adj. 有价值的，值得考虑的： considerable enough to be weighed or assessed</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Climate change has exerted a ponderable influence on world politics.  气候变化对世界政局有着不容忽视的影响。</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>ponderous</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 沉重的： of very great weight
 adj. 沉闷无聊的： oppressively or unpleasantly dull</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>a ponderous machine  沉重的机器
 a ponderous sermon no one really cares  实际上无人关心的沉闷无聊的布道</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>pontificate</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>vi. 傲慢地做或说：to speak or express opinions in a pompous or dogmatic way</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>pontificate to show a sense of superiority  傲慢地说以显示高人一等的优越感</t>
-        </is>
-      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3457,17 +3469,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>pore</t>
+          <t>pontificate</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vi. 仔细浏览，仔细研究： to read or study attentively(usually used with over)</t>
+          <t>vi. 傲慢地做或说：to speak or express opinions in a pompous or dogmatic way</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">The committee will probably pore over the results of the study for a long time before making their decision.  </t>
+          <t>pontificate to show a sense of superiority  傲慢地说以显示高人一等的优越感</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3479,15 +3491,19 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>porous</t>
+          <t>pore</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>adj. 多孔可渗透的： admitting the passage of gas or liquid through pores or interstices</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>vi. 仔细浏览，仔细研究： to read or study attentively(usually used with over)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The committee will probably pore over the results of the study for a long time before making their decision.  </t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3497,43 +3513,39 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>porous</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>adj. 多孔可渗透的： admitting the passage of gas or liquid through pores or interstices</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>portentous</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>adj. 预兆性的，凶兆的： being or showing a sign of evil or calamity to come
 adj. 勾起兴趣的，令人遐想的：eliciting amazement or wonder</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>an eerie and portentous stillness  阴森神秘，充满凶兆的寂静
 The way in which he could bring together opposing forces was truly portentous.  他 整 合 两股 对 抗势 力的方法着实令人好奇</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>poseur</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>n. 故作姿态、不真诚的人：an affected or insincere person</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>She is such a poseur and you will never know if she is really crying or pretending.   她就是个爱装的人，你从不知道她是真的在哭还是只是假装而已。</t>
-        </is>
-      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3543,17 +3555,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>posit</t>
+          <t>poseur</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>vt.假定，断定：to assume or affirm the existence of</t>
+          <t>n. 故作姿态、不真诚的人：an affected or insincere person</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>The committee posited that he was qualified for the election.  委员会假定他是够格参加选举的。</t>
+          <t>She is such a poseur and you will never know if she is really crying or pretending.   她就是个爱装的人，你从不知道她是真的在哭还是只是假装而已。</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3565,91 +3577,91 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>posit</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>vt.假定，断定：to assume or affirm the existence of</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>The committee posited that he was qualified for the election.  委员会假定他是够格参加选举的。</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>postulate</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>n. 前提条件： something taken as being true or factual and used as a starting point for a course ofaction or reasoning
 v. 假定为真： to assume or claim as true, existent, or necessary</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>One of the postulates that the true agnostic rejects is the assumption that it is even possible for us to knowwhether God exists.   我们无法知道上帝是否存在——这是一个真正的不可知论者所反对的假设。
 postulate a causal relationship  假定存在因果关系</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>posture</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>n. 姿势，姿态： a general way of holding the body
 vi. 故作姿态，装模作样： to assume an artificial or pretended attitude</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>A good upright posture will prevent backaches.  良好的站姿可以预防背痛。
 postured to impress  故作姿态以给别人留下印象</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>potable</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>n. 饮品，尤指有酒精饮料： a beverage, especially an alcoholic beverage
 adj. 适于饮用的： suitable for drinking</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Potables are offered at bar counter for free.   饮料可以在吧台免费领取。
 Price of the potable water has soared.  饮用水价格飙升。</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>potentate</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>n. 有权的人： one who has the power and position to rule over others</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>a son of a potentate  官二代</t>
-        </is>
-      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3659,17 +3671,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>potentiate</t>
+          <t>potentate</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>vt. 激活，加强： to make effective or active, or more effective or more active</t>
+          <t>n. 有权的人： one who has the power and position to rule over others</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>additives to potentiate the drug  增强药效的添加剂</t>
+          <t>a son of a potentate  官二代</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3681,17 +3693,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>pout</t>
+          <t>potentiate</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vi. （特别是撅嘴）表示不悦： to show displeasure, especially by thrusting out the lips or wearing asullen expression</t>
+          <t>vt. 激活，加强： to make effective or active, or more effective or more active</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>She pouted and didn't say a word to anyone all morning.  她整个早上都闷闷不乐，没和别人说一句话。</t>
+          <t>additives to potentiate the drug  增强药效的添加剂</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3703,17 +3715,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>practitioner</t>
+          <t>pout</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>n. 职业人士： one who practices a profession</t>
+          <t>vi. （特别是撅嘴）表示不悦： to show displeasure, especially by thrusting out the lips or wearing asullen expression</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>medical practitioner  医护人员，行医者</t>
+          <t>She pouted and didn't say a word to anyone all morning.  她整个早上都闷闷不乐，没和别人说一句话。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3725,17 +3737,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>prairie</t>
+          <t>practitioner</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>n. 大草原： an extensive area of flat or rolling, predominantly treeless grassland</t>
+          <t>n. 职业人士： one who practices a profession</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Canadian Prairie  加拿大大草原地区</t>
+          <t>medical practitioner  医护人员，行医者</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3747,17 +3759,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>prate</t>
+          <t>prairie</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>vi. 闲聊，空谈： to talk long and idly</t>
+          <t>n. 大草原： an extensive area of flat or rolling, predominantly treeless grassland</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>They have been prating on the phone for hours.  他们已经煲了几个小时的电话粥了。</t>
+          <t>Canadian Prairie  加拿大大草原地区</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3769,17 +3781,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>preach</t>
+          <t>prate</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>vi. 传道，布道： to deliver a sermon</t>
+          <t>vi. 闲聊，空谈： to talk long and idly</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>a minister who loves to preach  一个爱布道的牧师</t>
+          <t>They have been prating on the phone for hours.  他们已经煲了几个小时的电话粥了。</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3791,69 +3803,91 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>preach</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>vi. 传道，布道： to deliver a sermon</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>a minister who loves to preach  一个爱布道的牧师</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>precarious</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>adj. 危险不稳定的： dangerously lacking in security or stability
 adj. 可疑的，不明确的： dependent on uncertain premises</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>a precarious livelihood  不稳定的生计
 His entire argument relies on a precarious assumption.   他的整篇论证都建立在一个可疑的假设之上。</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>precedent</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>n. 先例，前例： an earlier occurrence of something similar
 adj. 先前的： prior in time, order, arrangement, or significance</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>There has not been any precedent so far.   到目前为止还没有先例。
 a landmark decision that set a legalprecedent  在法律上首开先河的重大决议
 Her violent behaviors may be explained by some precedent events in her troubled life.   她 的 暴 力 行 径 或许可以由她之前苦难生活中遭遇到的一些事件来解释。</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>precipice</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>n. 悬崖峭壁： a very steep or overhanging place</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>a precipice too steep to climb  过于陡峭而无法攀爬的悬崖</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
